--- a/data/benchmark_results.xlsx
+++ b/data/benchmark_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\multiLang\segul-bench\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ADBA25-D14D-4402-B1F4-0A4369ED75D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B4C9E0-94FB-4C1C-BC2B-B0D9B3A1EB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="122">
   <si>
     <t>SEGUL</t>
   </si>
@@ -389,6 +389,15 @@
   </si>
   <si>
     <t>DNA</t>
+  </si>
+  <si>
+    <t>os_name</t>
+  </si>
+  <si>
+    <t>macOS</t>
+  </si>
+  <si>
+    <t>WindowsWSL</t>
   </si>
 </sst>
 </file>
@@ -1245,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O151"/>
+  <dimension ref="A1:P151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92:I151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,17 +1265,17 @@
     <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="41" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1292,28 +1301,31 @@
         <v>112</v>
       </c>
       <c r="I1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
       <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1339,30 +1351,33 @@
         <v>32</v>
       </c>
       <c r="I2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>6.0995370370370374E-5</v>
       </c>
-      <c r="L2" s="2">
-        <f>K2*86400</f>
+      <c r="M2" s="2">
+        <f>L2*86400</f>
         <v>5.2700000000000005</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>603044</v>
       </c>
-      <c r="N2" s="5">
-        <f>M2/1000</f>
+      <c r="O2" s="5">
+        <f>N2/1000</f>
         <v>603.04399999999998</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>1.46</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1388,30 +1403,33 @@
         <v>32</v>
       </c>
       <c r="I3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>6.0995370370370374E-5</v>
       </c>
-      <c r="L3" s="2">
-        <f t="shared" ref="L3:L66" si="0">K3*86400</f>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M66" si="0">L3*86400</f>
         <v>5.2700000000000005</v>
       </c>
-      <c r="M3" s="4">
+      <c r="N3" s="4">
         <v>601660</v>
       </c>
-      <c r="N3" s="5">
-        <f t="shared" ref="N3:N66" si="1">M3/1000</f>
+      <c r="O3" s="5">
+        <f t="shared" ref="O3:O66" si="1">N3/1000</f>
         <v>601.66</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>1.49</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1437,30 +1455,33 @@
         <v>32</v>
       </c>
       <c r="I4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>6.1111111111111121E-5</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <f t="shared" si="0"/>
         <v>5.2800000000000011</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <v>601924</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O4" s="5">
         <f t="shared" si="1"/>
         <v>601.92399999999998</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>1.49</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1486,30 +1507,33 @@
         <v>32</v>
       </c>
       <c r="I5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" t="s">
         <v>22</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>6.076388888888888E-5</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <f t="shared" si="0"/>
         <v>5.2499999999999991</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <v>602216</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <f t="shared" si="1"/>
         <v>602.21600000000001</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>1.46</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1535,30 +1559,33 @@
         <v>32</v>
       </c>
       <c r="I6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" t="s">
         <v>23</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>6.087962962962962E-5</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <f t="shared" si="0"/>
         <v>5.2599999999999989</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>603376</v>
       </c>
-      <c r="N6" s="5">
+      <c r="O6" s="5">
         <f t="shared" si="1"/>
         <v>603.37599999999998</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>1.53</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1584,30 +1611,33 @@
         <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>6.1226851851851847E-5</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <f t="shared" si="0"/>
         <v>5.29</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <v>606380</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="5">
         <f t="shared" si="1"/>
         <v>606.38</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>1.49</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1633,30 +1663,33 @@
         <v>32</v>
       </c>
       <c r="I8" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" t="s">
         <v>25</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6.0185185185185194E-5</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <f t="shared" si="0"/>
         <v>5.2000000000000011</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>603144</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5">
         <f t="shared" si="1"/>
         <v>603.14400000000001</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>1.49</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1682,30 +1715,33 @@
         <v>32</v>
       </c>
       <c r="I9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" t="s">
         <v>26</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6.076388888888888E-5</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <f t="shared" si="0"/>
         <v>5.2499999999999991</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>602932</v>
       </c>
-      <c r="N9" s="5">
+      <c r="O9" s="5">
         <f t="shared" si="1"/>
         <v>602.93200000000002</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>1.51</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1731,30 +1767,33 @@
         <v>32</v>
       </c>
       <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
         <v>27</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6.041666666666666E-5</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <f t="shared" si="0"/>
         <v>5.22</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>602420</v>
       </c>
-      <c r="N10" s="5">
+      <c r="O10" s="5">
         <f t="shared" si="1"/>
         <v>602.41999999999996</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>1.44</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1780,30 +1819,33 @@
         <v>32</v>
       </c>
       <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
         <v>28</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <v>6.0532407407407414E-5</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <f t="shared" si="0"/>
         <v>5.23</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <v>597288</v>
       </c>
-      <c r="N11" s="5">
+      <c r="O11" s="5">
         <f t="shared" si="1"/>
         <v>597.28800000000001</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>1.44</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1829,30 +1871,33 @@
         <v>32</v>
       </c>
       <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
         <v>29</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5.0925925925925923E-5</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <f t="shared" si="0"/>
         <v>4.3999999999999995</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
         <v>656672</v>
       </c>
-      <c r="N12" s="5">
+      <c r="O12" s="5">
         <f t="shared" si="1"/>
         <v>656.67200000000003</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>1.61</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1878,30 +1923,33 @@
         <v>32</v>
       </c>
       <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
         <v>30</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>5.2546296296296304E-5</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <f t="shared" si="0"/>
         <v>4.5400000000000009</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>655700</v>
       </c>
-      <c r="N13" s="5">
+      <c r="O13" s="5">
         <f t="shared" si="1"/>
         <v>655.7</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>1.67</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1927,30 +1975,33 @@
         <v>32</v>
       </c>
       <c r="I14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" t="s">
         <v>31</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5.0578703703703703E-5</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <f t="shared" si="0"/>
         <v>4.37</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>654952</v>
       </c>
-      <c r="N14" s="5">
+      <c r="O14" s="5">
         <f t="shared" si="1"/>
         <v>654.952</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>1.68</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1976,30 +2027,33 @@
         <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="J15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5.0578703703703703E-5</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <f t="shared" si="0"/>
         <v>4.37</v>
       </c>
-      <c r="M15" s="4">
+      <c r="N15" s="4">
         <v>654220</v>
       </c>
-      <c r="N15" s="5">
+      <c r="O15" s="5">
         <f t="shared" si="1"/>
         <v>654.22</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <v>1.67</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2025,30 +2079,33 @@
         <v>32</v>
       </c>
       <c r="I16" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" t="s">
         <v>33</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="3">
+      <c r="L16" s="3">
         <v>5.0810185185185176E-5</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <f t="shared" si="0"/>
         <v>4.3899999999999988</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="4">
         <v>656464</v>
       </c>
-      <c r="N16" s="5">
+      <c r="O16" s="5">
         <f t="shared" si="1"/>
         <v>656.46400000000006</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>1.65</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2074,30 +2131,33 @@
         <v>32</v>
       </c>
       <c r="I17" t="s">
+        <v>121</v>
+      </c>
+      <c r="J17" t="s">
         <v>34</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5.0462962962962963E-5</v>
       </c>
-      <c r="L17" s="2">
+      <c r="M17" s="2">
         <f t="shared" si="0"/>
         <v>4.3600000000000003</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>657636</v>
       </c>
-      <c r="N17" s="5">
+      <c r="O17" s="5">
         <f t="shared" si="1"/>
         <v>657.63599999999997</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>1.72</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2123,30 +2183,33 @@
         <v>32</v>
       </c>
       <c r="I18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" t="s">
         <v>35</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5.2314814814814803E-5</v>
       </c>
-      <c r="L18" s="2">
+      <c r="M18" s="2">
         <f t="shared" si="0"/>
         <v>4.5199999999999987</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>658844</v>
       </c>
-      <c r="N18" s="5">
+      <c r="O18" s="5">
         <f t="shared" si="1"/>
         <v>658.84400000000005</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <v>1.66</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2172,30 +2235,33 @@
         <v>32</v>
       </c>
       <c r="I19" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" t="s">
         <v>36</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
         <v>5.2546296296296304E-5</v>
       </c>
-      <c r="L19" s="2">
+      <c r="M19" s="2">
         <f t="shared" si="0"/>
         <v>4.5400000000000009</v>
       </c>
-      <c r="M19" s="4">
+      <c r="N19" s="4">
         <v>655640</v>
       </c>
-      <c r="N19" s="5">
+      <c r="O19" s="5">
         <f t="shared" si="1"/>
         <v>655.64</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <v>1.77</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2221,30 +2287,33 @@
         <v>32</v>
       </c>
       <c r="I20" t="s">
+        <v>121</v>
+      </c>
+      <c r="J20" t="s">
         <v>37</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5.0694444444444443E-5</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
         <f t="shared" si="0"/>
         <v>4.38</v>
       </c>
-      <c r="M20" s="4">
+      <c r="N20" s="4">
         <v>655032</v>
       </c>
-      <c r="N20" s="5">
+      <c r="O20" s="5">
         <f t="shared" si="1"/>
         <v>655.03200000000004</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <v>1.73</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2270,30 +2339,33 @@
         <v>32</v>
       </c>
       <c r="I21" t="s">
+        <v>121</v>
+      </c>
+      <c r="J21" t="s">
         <v>38</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5.0694444444444443E-5</v>
       </c>
-      <c r="L21" s="2">
+      <c r="M21" s="2">
         <f t="shared" si="0"/>
         <v>4.38</v>
       </c>
-      <c r="M21" s="4">
+      <c r="N21" s="4">
         <v>655656</v>
       </c>
-      <c r="N21" s="5">
+      <c r="O21" s="5">
         <f t="shared" si="1"/>
         <v>655.65599999999995</v>
       </c>
-      <c r="O21" s="1">
+      <c r="P21" s="1">
         <v>1.63</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2319,30 +2391,33 @@
         <v>32</v>
       </c>
       <c r="I22" t="s">
+        <v>121</v>
+      </c>
+      <c r="J22" t="s">
         <v>39</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4.8611111111111115E-5</v>
       </c>
-      <c r="L22" s="2">
+      <c r="M22" s="2">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="M22" s="4">
+      <c r="N22" s="4">
         <v>485060</v>
       </c>
-      <c r="N22" s="5">
+      <c r="O22" s="5">
         <f t="shared" si="1"/>
         <v>485.06</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <v>1.73</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2368,30 +2443,33 @@
         <v>32</v>
       </c>
       <c r="I23" t="s">
+        <v>121</v>
+      </c>
+      <c r="J23" t="s">
         <v>40</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4.8379629629629635E-5</v>
       </c>
-      <c r="L23" s="2">
+      <c r="M23" s="2">
         <f t="shared" si="0"/>
         <v>4.1800000000000006</v>
       </c>
-      <c r="M23" s="4">
+      <c r="N23" s="4">
         <v>493252</v>
       </c>
-      <c r="N23" s="5">
+      <c r="O23" s="5">
         <f t="shared" si="1"/>
         <v>493.25200000000001</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <v>1.64</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2417,30 +2495,33 @@
         <v>32</v>
       </c>
       <c r="I24" t="s">
+        <v>121</v>
+      </c>
+      <c r="J24" t="s">
         <v>41</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4.8263888888888888E-5</v>
       </c>
-      <c r="L24" s="2">
+      <c r="M24" s="2">
         <f t="shared" si="0"/>
         <v>4.17</v>
       </c>
-      <c r="M24" s="4">
+      <c r="N24" s="4">
         <v>492252</v>
       </c>
-      <c r="N24" s="5">
+      <c r="O24" s="5">
         <f t="shared" si="1"/>
         <v>492.25200000000001</v>
       </c>
-      <c r="O24" s="1">
+      <c r="P24" s="1">
         <v>1.67</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2466,30 +2547,33 @@
         <v>32</v>
       </c>
       <c r="I25" t="s">
+        <v>121</v>
+      </c>
+      <c r="J25" t="s">
         <v>42</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="3">
+      <c r="L25" s="3">
         <v>4.8611111111111115E-5</v>
       </c>
-      <c r="L25" s="2">
+      <c r="M25" s="2">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="M25" s="4">
+      <c r="N25" s="4">
         <v>493608</v>
       </c>
-      <c r="N25" s="5">
+      <c r="O25" s="5">
         <f t="shared" si="1"/>
         <v>493.608</v>
       </c>
-      <c r="O25" s="1">
+      <c r="P25" s="1">
         <v>1.78</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2515,30 +2599,33 @@
         <v>32</v>
       </c>
       <c r="I26" t="s">
+        <v>121</v>
+      </c>
+      <c r="J26" t="s">
         <v>43</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4.8611111111111115E-5</v>
       </c>
-      <c r="L26" s="2">
+      <c r="M26" s="2">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="M26" s="4">
+      <c r="N26" s="4">
         <v>493336</v>
       </c>
-      <c r="N26" s="5">
+      <c r="O26" s="5">
         <f t="shared" si="1"/>
         <v>493.33600000000001</v>
       </c>
-      <c r="O26" s="1">
+      <c r="P26" s="1">
         <v>1.71</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2564,30 +2651,33 @@
         <v>32</v>
       </c>
       <c r="I27" t="s">
+        <v>121</v>
+      </c>
+      <c r="J27" t="s">
         <v>44</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4.9305555555555555E-5</v>
       </c>
-      <c r="L27" s="2">
+      <c r="M27" s="2">
         <f t="shared" si="0"/>
         <v>4.26</v>
       </c>
-      <c r="M27" s="4">
+      <c r="N27" s="4">
         <v>487492</v>
       </c>
-      <c r="N27" s="5">
+      <c r="O27" s="5">
         <f t="shared" si="1"/>
         <v>487.49200000000002</v>
       </c>
-      <c r="O27" s="1">
+      <c r="P27" s="1">
         <v>1.69</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2613,30 +2703,33 @@
         <v>32</v>
       </c>
       <c r="I28" t="s">
+        <v>121</v>
+      </c>
+      <c r="J28" t="s">
         <v>45</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="3">
+      <c r="L28" s="3">
         <v>4.9074074074074075E-5</v>
       </c>
-      <c r="L28" s="2">
+      <c r="M28" s="2">
         <f t="shared" si="0"/>
         <v>4.24</v>
       </c>
-      <c r="M28" s="4">
+      <c r="N28" s="4">
         <v>492756</v>
       </c>
-      <c r="N28" s="5">
+      <c r="O28" s="5">
         <f t="shared" si="1"/>
         <v>492.75599999999997</v>
       </c>
-      <c r="O28" s="1">
+      <c r="P28" s="1">
         <v>1.69</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2662,30 +2755,33 @@
         <v>32</v>
       </c>
       <c r="I29" t="s">
+        <v>121</v>
+      </c>
+      <c r="J29" t="s">
         <v>46</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>15</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>4.9074074074074075E-5</v>
       </c>
-      <c r="L29" s="2">
+      <c r="M29" s="2">
         <f t="shared" si="0"/>
         <v>4.24</v>
       </c>
-      <c r="M29" s="4">
+      <c r="N29" s="4">
         <v>487884</v>
       </c>
-      <c r="N29" s="5">
+      <c r="O29" s="5">
         <f t="shared" si="1"/>
         <v>487.88400000000001</v>
       </c>
-      <c r="O29" s="1">
+      <c r="P29" s="1">
         <v>1.64</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2711,30 +2807,33 @@
         <v>32</v>
       </c>
       <c r="I30" t="s">
+        <v>121</v>
+      </c>
+      <c r="J30" t="s">
         <v>47</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="3">
+      <c r="L30" s="3">
         <v>4.8379629629629635E-5</v>
       </c>
-      <c r="L30" s="2">
+      <c r="M30" s="2">
         <f t="shared" si="0"/>
         <v>4.1800000000000006</v>
       </c>
-      <c r="M30" s="4">
+      <c r="N30" s="4">
         <v>487136</v>
       </c>
-      <c r="N30" s="5">
+      <c r="O30" s="5">
         <f t="shared" si="1"/>
         <v>487.13600000000002</v>
       </c>
-      <c r="O30" s="1">
+      <c r="P30" s="1">
         <v>1.67</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2760,30 +2859,33 @@
         <v>32</v>
       </c>
       <c r="I31" t="s">
+        <v>121</v>
+      </c>
+      <c r="J31" t="s">
         <v>48</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>15</v>
       </c>
-      <c r="K31" s="3">
+      <c r="L31" s="3">
         <v>4.8263888888888888E-5</v>
       </c>
-      <c r="L31" s="2">
+      <c r="M31" s="2">
         <f t="shared" si="0"/>
         <v>4.17</v>
       </c>
-      <c r="M31" s="4">
+      <c r="N31" s="4">
         <v>488532</v>
       </c>
-      <c r="N31" s="5">
+      <c r="O31" s="5">
         <f t="shared" si="1"/>
         <v>488.53199999999998</v>
       </c>
-      <c r="O31" s="1">
+      <c r="P31" s="1">
         <v>1.7</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -2809,30 +2911,33 @@
         <v>32</v>
       </c>
       <c r="I32" t="s">
+        <v>121</v>
+      </c>
+      <c r="J32" t="s">
         <v>49</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2.7916666666666666E-4</v>
       </c>
-      <c r="L32" s="2">
+      <c r="M32" s="2">
         <f t="shared" si="0"/>
         <v>24.12</v>
       </c>
-      <c r="M32" s="4">
+      <c r="N32" s="4">
         <v>2060468</v>
       </c>
-      <c r="N32" s="5">
+      <c r="O32" s="5">
         <f t="shared" si="1"/>
         <v>2060.4679999999998</v>
       </c>
-      <c r="O32" s="1">
+      <c r="P32" s="1">
         <v>1.42</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -2858,30 +2963,33 @@
         <v>32</v>
       </c>
       <c r="I33" t="s">
+        <v>121</v>
+      </c>
+      <c r="J33" t="s">
         <v>50</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2.7685185185185186E-4</v>
       </c>
-      <c r="L33" s="2">
+      <c r="M33" s="2">
         <f t="shared" si="0"/>
         <v>23.92</v>
       </c>
-      <c r="M33" s="4">
+      <c r="N33" s="4">
         <v>2060400</v>
       </c>
-      <c r="N33" s="5">
+      <c r="O33" s="5">
         <f t="shared" si="1"/>
         <v>2060.4</v>
       </c>
-      <c r="O33" s="1">
+      <c r="P33" s="1">
         <v>1.44</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -2907,30 +3015,33 @@
         <v>32</v>
       </c>
       <c r="I34" t="s">
+        <v>121</v>
+      </c>
+      <c r="J34" t="s">
         <v>51</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>15</v>
       </c>
-      <c r="K34" s="3">
+      <c r="L34" s="3">
         <v>2.7546296296296298E-4</v>
       </c>
-      <c r="L34" s="2">
+      <c r="M34" s="2">
         <f t="shared" si="0"/>
         <v>23.8</v>
       </c>
-      <c r="M34" s="4">
+      <c r="N34" s="4">
         <v>2060608</v>
       </c>
-      <c r="N34" s="5">
+      <c r="O34" s="5">
         <f t="shared" si="1"/>
         <v>2060.6080000000002</v>
       </c>
-      <c r="O34" s="1">
+      <c r="P34" s="1">
         <v>1.43</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -2956,30 +3067,33 @@
         <v>32</v>
       </c>
       <c r="I35" t="s">
+        <v>121</v>
+      </c>
+      <c r="J35" t="s">
         <v>52</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2.7326388888888892E-4</v>
       </c>
-      <c r="L35" s="2">
+      <c r="M35" s="2">
         <f t="shared" si="0"/>
         <v>23.610000000000003</v>
       </c>
-      <c r="M35" s="4">
+      <c r="N35" s="4">
         <v>2060828</v>
       </c>
-      <c r="N35" s="5">
+      <c r="O35" s="5">
         <f t="shared" si="1"/>
         <v>2060.828</v>
       </c>
-      <c r="O35" s="1">
+      <c r="P35" s="1">
         <v>1.44</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -3005,30 +3119,33 @@
         <v>32</v>
       </c>
       <c r="I36" t="s">
+        <v>121</v>
+      </c>
+      <c r="J36" t="s">
         <v>53</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="3">
+      <c r="L36" s="3">
         <v>2.8402777777777774E-4</v>
       </c>
-      <c r="L36" s="2">
+      <c r="M36" s="2">
         <f t="shared" si="0"/>
         <v>24.539999999999996</v>
       </c>
-      <c r="M36" s="4">
+      <c r="N36" s="4">
         <v>2060464</v>
       </c>
-      <c r="N36" s="5">
+      <c r="O36" s="5">
         <f t="shared" si="1"/>
         <v>2060.4639999999999</v>
       </c>
-      <c r="O36" s="1">
+      <c r="P36" s="1">
         <v>1.42</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -3054,30 +3171,33 @@
         <v>32</v>
       </c>
       <c r="I37" t="s">
+        <v>121</v>
+      </c>
+      <c r="J37" t="s">
         <v>54</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>15</v>
       </c>
-      <c r="K37" s="3">
+      <c r="L37" s="3">
         <v>2.7662037037037038E-4</v>
       </c>
-      <c r="L37" s="2">
+      <c r="M37" s="2">
         <f t="shared" si="0"/>
         <v>23.900000000000002</v>
       </c>
-      <c r="M37" s="4">
+      <c r="N37" s="4">
         <v>2060472</v>
       </c>
-      <c r="N37" s="5">
+      <c r="O37" s="5">
         <f t="shared" si="1"/>
         <v>2060.4720000000002</v>
       </c>
-      <c r="O37" s="1">
+      <c r="P37" s="1">
         <v>1.44</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -3103,30 +3223,33 @@
         <v>32</v>
       </c>
       <c r="I38" t="s">
+        <v>121</v>
+      </c>
+      <c r="J38" t="s">
         <v>55</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="3">
+      <c r="L38" s="3">
         <v>2.7453703703703706E-4</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <f t="shared" si="0"/>
         <v>23.720000000000002</v>
       </c>
-      <c r="M38" s="4">
+      <c r="N38" s="4">
         <v>2060468</v>
       </c>
-      <c r="N38" s="5">
+      <c r="O38" s="5">
         <f t="shared" si="1"/>
         <v>2060.4679999999998</v>
       </c>
-      <c r="O38" s="1">
+      <c r="P38" s="1">
         <v>1.44</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -3152,30 +3275,33 @@
         <v>32</v>
       </c>
       <c r="I39" t="s">
+        <v>121</v>
+      </c>
+      <c r="J39" t="s">
         <v>56</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>15</v>
       </c>
-      <c r="K39" s="3">
+      <c r="L39" s="3">
         <v>2.8634259259259259E-4</v>
       </c>
-      <c r="L39" s="2">
+      <c r="M39" s="2">
         <f t="shared" si="0"/>
         <v>24.74</v>
       </c>
-      <c r="M39" s="4">
+      <c r="N39" s="4">
         <v>2060472</v>
       </c>
-      <c r="N39" s="5">
+      <c r="O39" s="5">
         <f t="shared" si="1"/>
         <v>2060.4720000000002</v>
       </c>
-      <c r="O39" s="1">
+      <c r="P39" s="1">
         <v>1.41</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -3201,30 +3327,33 @@
         <v>32</v>
       </c>
       <c r="I40" t="s">
+        <v>121</v>
+      </c>
+      <c r="J40" t="s">
         <v>57</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>15</v>
       </c>
-      <c r="K40" s="3">
+      <c r="L40" s="3">
         <v>2.7615740740740742E-4</v>
       </c>
-      <c r="L40" s="2">
+      <c r="M40" s="2">
         <f t="shared" si="0"/>
         <v>23.86</v>
       </c>
-      <c r="M40" s="4">
+      <c r="N40" s="4">
         <v>2060472</v>
       </c>
-      <c r="N40" s="5">
+      <c r="O40" s="5">
         <f t="shared" si="1"/>
         <v>2060.4720000000002</v>
       </c>
-      <c r="O40" s="1">
+      <c r="P40" s="1">
         <v>1.43</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -3250,30 +3379,33 @@
         <v>32</v>
       </c>
       <c r="I41" t="s">
+        <v>121</v>
+      </c>
+      <c r="J41" t="s">
         <v>58</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2.7349537037037034E-4</v>
       </c>
-      <c r="L41" s="2">
+      <c r="M41" s="2">
         <f t="shared" si="0"/>
         <v>23.63</v>
       </c>
-      <c r="M41" s="4">
+      <c r="N41" s="4">
         <v>2060476</v>
       </c>
-      <c r="N41" s="5">
+      <c r="O41" s="5">
         <f t="shared" si="1"/>
         <v>2060.4760000000001</v>
       </c>
-      <c r="O41" s="1">
+      <c r="P41" s="1">
         <v>1.44</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -3299,30 +3431,33 @@
         <v>32</v>
       </c>
       <c r="I42" t="s">
+        <v>121</v>
+      </c>
+      <c r="J42" t="s">
         <v>59</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3.0138888888888885E-4</v>
       </c>
-      <c r="L42" s="2">
+      <c r="M42" s="2">
         <f t="shared" si="0"/>
         <v>26.039999999999996</v>
       </c>
-      <c r="M42" s="4">
+      <c r="N42" s="4">
         <v>2475260</v>
       </c>
-      <c r="N42" s="5">
+      <c r="O42" s="5">
         <f t="shared" si="1"/>
         <v>2475.2600000000002</v>
       </c>
-      <c r="O42" s="1">
+      <c r="P42" s="1">
         <v>1.64</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -3348,30 +3483,33 @@
         <v>32</v>
       </c>
       <c r="I43" t="s">
+        <v>121</v>
+      </c>
+      <c r="J43" t="s">
         <v>60</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>15</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3.0046296296296299E-4</v>
       </c>
-      <c r="L43" s="2">
+      <c r="M43" s="2">
         <f t="shared" si="0"/>
         <v>25.96</v>
       </c>
-      <c r="M43" s="4">
+      <c r="N43" s="4">
         <v>2475264</v>
       </c>
-      <c r="N43" s="5">
+      <c r="O43" s="5">
         <f t="shared" si="1"/>
         <v>2475.2640000000001</v>
       </c>
-      <c r="O43" s="1">
+      <c r="P43" s="1">
         <v>1.65</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -3397,30 +3535,33 @@
         <v>32</v>
       </c>
       <c r="I44" t="s">
+        <v>121</v>
+      </c>
+      <c r="J44" t="s">
         <v>61</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>15</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2.9629629629629629E-4</v>
       </c>
-      <c r="L44" s="2">
+      <c r="M44" s="2">
         <f t="shared" si="0"/>
         <v>25.6</v>
       </c>
-      <c r="M44" s="4">
+      <c r="N44" s="4">
         <v>2475208</v>
       </c>
-      <c r="N44" s="5">
+      <c r="O44" s="5">
         <f t="shared" si="1"/>
         <v>2475.2080000000001</v>
       </c>
-      <c r="O44" s="1">
+      <c r="P44" s="1">
         <v>1.64</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -3446,30 +3587,33 @@
         <v>32</v>
       </c>
       <c r="I45" t="s">
+        <v>121</v>
+      </c>
+      <c r="J45" t="s">
         <v>62</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>15</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2.9907407407407405E-4</v>
       </c>
-      <c r="L45" s="2">
+      <c r="M45" s="2">
         <f t="shared" si="0"/>
         <v>25.84</v>
       </c>
-      <c r="M45" s="4">
+      <c r="N45" s="4">
         <v>2475236</v>
       </c>
-      <c r="N45" s="5">
+      <c r="O45" s="5">
         <f t="shared" si="1"/>
         <v>2475.2359999999999</v>
       </c>
-      <c r="O45" s="1">
+      <c r="P45" s="1">
         <v>1.65</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -3495,30 +3639,33 @@
         <v>32</v>
       </c>
       <c r="I46" t="s">
+        <v>121</v>
+      </c>
+      <c r="J46" t="s">
         <v>63</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>15</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3.0104166666666669E-4</v>
       </c>
-      <c r="L46" s="2">
+      <c r="M46" s="2">
         <f t="shared" si="0"/>
         <v>26.01</v>
       </c>
-      <c r="M46" s="4">
+      <c r="N46" s="4">
         <v>2475256</v>
       </c>
-      <c r="N46" s="5">
+      <c r="O46" s="5">
         <f t="shared" si="1"/>
         <v>2475.2559999999999</v>
       </c>
-      <c r="O46" s="1">
+      <c r="P46" s="1">
         <v>1.64</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -3544,30 +3691,33 @@
         <v>32</v>
       </c>
       <c r="I47" t="s">
+        <v>121</v>
+      </c>
+      <c r="J47" t="s">
         <v>64</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>15</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2.9664351851851851E-4</v>
       </c>
-      <c r="L47" s="2">
+      <c r="M47" s="2">
         <f t="shared" si="0"/>
         <v>25.63</v>
       </c>
-      <c r="M47" s="4">
+      <c r="N47" s="4">
         <v>2475208</v>
       </c>
-      <c r="N47" s="5">
+      <c r="O47" s="5">
         <f t="shared" si="1"/>
         <v>2475.2080000000001</v>
       </c>
-      <c r="O47" s="1">
+      <c r="P47" s="1">
         <v>1.65</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -3593,30 +3743,33 @@
         <v>32</v>
       </c>
       <c r="I48" t="s">
+        <v>121</v>
+      </c>
+      <c r="J48" t="s">
         <v>65</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>15</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2.9606481481481481E-4</v>
       </c>
-      <c r="L48" s="2">
+      <c r="M48" s="2">
         <f t="shared" si="0"/>
         <v>25.58</v>
       </c>
-      <c r="M48" s="4">
+      <c r="N48" s="4">
         <v>2475116</v>
       </c>
-      <c r="N48" s="5">
+      <c r="O48" s="5">
         <f t="shared" si="1"/>
         <v>2475.116</v>
       </c>
-      <c r="O48" s="1">
+      <c r="P48" s="1">
         <v>1.66</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -3642,30 +3795,33 @@
         <v>32</v>
       </c>
       <c r="I49" t="s">
+        <v>121</v>
+      </c>
+      <c r="J49" t="s">
         <v>66</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>15</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3.0520833333333333E-4</v>
       </c>
-      <c r="L49" s="2">
+      <c r="M49" s="2">
         <f t="shared" si="0"/>
         <v>26.37</v>
       </c>
-      <c r="M49" s="4">
+      <c r="N49" s="4">
         <v>2475208</v>
       </c>
-      <c r="N49" s="5">
+      <c r="O49" s="5">
         <f t="shared" si="1"/>
         <v>2475.2080000000001</v>
       </c>
-      <c r="O49" s="1">
+      <c r="P49" s="1">
         <v>1.62</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -3691,30 +3847,33 @@
         <v>32</v>
       </c>
       <c r="I50" t="s">
+        <v>121</v>
+      </c>
+      <c r="J50" t="s">
         <v>67</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>15</v>
       </c>
-      <c r="K50" s="3">
+      <c r="L50" s="3">
         <v>2.9872685185185183E-4</v>
       </c>
-      <c r="L50" s="2">
+      <c r="M50" s="2">
         <f t="shared" si="0"/>
         <v>25.81</v>
       </c>
-      <c r="M50" s="4">
+      <c r="N50" s="4">
         <v>2475232</v>
       </c>
-      <c r="N50" s="5">
+      <c r="O50" s="5">
         <f t="shared" si="1"/>
         <v>2475.232</v>
       </c>
-      <c r="O50" s="1">
+      <c r="P50" s="1">
         <v>1.65</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -3740,30 +3899,33 @@
         <v>32</v>
       </c>
       <c r="I51" t="s">
+        <v>121</v>
+      </c>
+      <c r="J51" t="s">
         <v>68</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>15</v>
       </c>
-      <c r="K51" s="3">
+      <c r="L51" s="3">
         <v>2.950231481481481E-4</v>
       </c>
-      <c r="L51" s="2">
+      <c r="M51" s="2">
         <f t="shared" si="0"/>
         <v>25.489999999999995</v>
       </c>
-      <c r="M51" s="4">
+      <c r="N51" s="4">
         <v>2475208</v>
       </c>
-      <c r="N51" s="5">
+      <c r="O51" s="5">
         <f t="shared" si="1"/>
         <v>2475.2080000000001</v>
       </c>
-      <c r="O51" s="1">
+      <c r="P51" s="1">
         <v>1.65</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -3789,30 +3951,33 @@
         <v>32</v>
       </c>
       <c r="I52" t="s">
+        <v>121</v>
+      </c>
+      <c r="J52" t="s">
         <v>69</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>15</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2.1724537037037038E-4</v>
       </c>
-      <c r="L52" s="2">
+      <c r="M52" s="2">
         <f t="shared" si="0"/>
         <v>18.77</v>
       </c>
-      <c r="M52" s="4">
+      <c r="N52" s="4">
         <v>1844164</v>
       </c>
-      <c r="N52" s="5">
+      <c r="O52" s="5">
         <f t="shared" si="1"/>
         <v>1844.164</v>
       </c>
-      <c r="O52" s="1">
+      <c r="P52" s="1">
         <v>1.83</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -3838,30 +4003,33 @@
         <v>32</v>
       </c>
       <c r="I53" t="s">
+        <v>121</v>
+      </c>
+      <c r="J53" t="s">
         <v>70</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>15</v>
       </c>
-      <c r="K53" s="3">
+      <c r="L53" s="3">
         <v>2.3194444444444442E-4</v>
       </c>
-      <c r="L53" s="2">
+      <c r="M53" s="2">
         <f t="shared" si="0"/>
         <v>20.04</v>
       </c>
-      <c r="M53" s="4">
+      <c r="N53" s="4">
         <v>1843772</v>
       </c>
-      <c r="N53" s="5">
+      <c r="O53" s="5">
         <f t="shared" si="1"/>
         <v>1843.7719999999999</v>
       </c>
-      <c r="O53" s="1">
+      <c r="P53" s="1">
         <v>1.79</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -3887,30 +4055,33 @@
         <v>32</v>
       </c>
       <c r="I54" t="s">
+        <v>121</v>
+      </c>
+      <c r="J54" t="s">
         <v>71</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>15</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2.434027777777778E-4</v>
       </c>
-      <c r="L54" s="2">
+      <c r="M54" s="2">
         <f t="shared" si="0"/>
         <v>21.03</v>
       </c>
-      <c r="M54" s="4">
+      <c r="N54" s="4">
         <v>1844536</v>
       </c>
-      <c r="N54" s="5">
+      <c r="O54" s="5">
         <f t="shared" si="1"/>
         <v>1844.5360000000001</v>
       </c>
-      <c r="O54" s="1">
+      <c r="P54" s="1">
         <v>1.74</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -3936,30 +4107,33 @@
         <v>32</v>
       </c>
       <c r="I55" t="s">
+        <v>121</v>
+      </c>
+      <c r="J55" t="s">
         <v>72</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>15</v>
       </c>
-      <c r="K55" s="3">
+      <c r="L55" s="3">
         <v>2.2037037037037034E-4</v>
       </c>
-      <c r="L55" s="2">
+      <c r="M55" s="2">
         <f t="shared" si="0"/>
         <v>19.039999999999996</v>
       </c>
-      <c r="M55" s="4">
+      <c r="N55" s="4">
         <v>1843872</v>
       </c>
-      <c r="N55" s="5">
+      <c r="O55" s="5">
         <f t="shared" si="1"/>
         <v>1843.8720000000001</v>
       </c>
-      <c r="O55" s="1">
+      <c r="P55" s="1">
         <v>1.85</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -3985,30 +4159,33 @@
         <v>32</v>
       </c>
       <c r="I56" t="s">
+        <v>121</v>
+      </c>
+      <c r="J56" t="s">
         <v>73</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>15</v>
       </c>
-      <c r="K56" s="3">
+      <c r="L56" s="3">
         <v>2.2384259259259257E-4</v>
       </c>
-      <c r="L56" s="2">
+      <c r="M56" s="2">
         <f t="shared" si="0"/>
         <v>19.339999999999996</v>
       </c>
-      <c r="M56" s="4">
+      <c r="N56" s="4">
         <v>1843788</v>
       </c>
-      <c r="N56" s="5">
+      <c r="O56" s="5">
         <f t="shared" si="1"/>
         <v>1843.788</v>
       </c>
-      <c r="O56" s="1">
+      <c r="P56" s="1">
         <v>1.81</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -4034,30 +4211,33 @@
         <v>32</v>
       </c>
       <c r="I57" t="s">
+        <v>121</v>
+      </c>
+      <c r="J57" t="s">
         <v>74</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>15</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2.4791666666666668E-4</v>
       </c>
-      <c r="L57" s="2">
+      <c r="M57" s="2">
         <f t="shared" si="0"/>
         <v>21.42</v>
       </c>
-      <c r="M57" s="4">
+      <c r="N57" s="4">
         <v>1845016</v>
       </c>
-      <c r="N57" s="5">
+      <c r="O57" s="5">
         <f t="shared" si="1"/>
         <v>1845.0160000000001</v>
       </c>
-      <c r="O57" s="1">
+      <c r="P57" s="1">
         <v>1.73</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -4083,30 +4263,33 @@
         <v>32</v>
       </c>
       <c r="I58" t="s">
+        <v>121</v>
+      </c>
+      <c r="J58" t="s">
         <v>75</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>15</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2.1203703703703706E-4</v>
       </c>
-      <c r="L58" s="2">
+      <c r="M58" s="2">
         <f t="shared" si="0"/>
         <v>18.32</v>
       </c>
-      <c r="M58" s="4">
+      <c r="N58" s="4">
         <v>1843632</v>
       </c>
-      <c r="N58" s="5">
+      <c r="O58" s="5">
         <f t="shared" si="1"/>
         <v>1843.6320000000001</v>
       </c>
-      <c r="O58" s="1">
+      <c r="P58" s="1">
         <v>1.87</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -4132,30 +4315,33 @@
         <v>32</v>
       </c>
       <c r="I59" t="s">
+        <v>121</v>
+      </c>
+      <c r="J59" t="s">
         <v>76</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>15</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2.3564814814814813E-4</v>
       </c>
-      <c r="L59" s="2">
+      <c r="M59" s="2">
         <f t="shared" si="0"/>
         <v>20.36</v>
       </c>
-      <c r="M59" s="4">
+      <c r="N59" s="4">
         <v>1843920</v>
       </c>
-      <c r="N59" s="5">
+      <c r="O59" s="5">
         <f t="shared" si="1"/>
         <v>1843.92</v>
       </c>
-      <c r="O59" s="1">
+      <c r="P59" s="1">
         <v>1.77</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -4181,30 +4367,33 @@
         <v>32</v>
       </c>
       <c r="I60" t="s">
+        <v>121</v>
+      </c>
+      <c r="J60" t="s">
         <v>77</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>15</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2.173611111111111E-4</v>
       </c>
-      <c r="L60" s="2">
+      <c r="M60" s="2">
         <f t="shared" si="0"/>
         <v>18.779999999999998</v>
       </c>
-      <c r="M60" s="4">
+      <c r="N60" s="4">
         <v>1843600</v>
       </c>
-      <c r="N60" s="5">
+      <c r="O60" s="5">
         <f t="shared" si="1"/>
         <v>1843.6</v>
       </c>
-      <c r="O60" s="1">
+      <c r="P60" s="1">
         <v>1.86</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -4230,30 +4419,33 @@
         <v>32</v>
       </c>
       <c r="I61" t="s">
+        <v>121</v>
+      </c>
+      <c r="J61" t="s">
         <v>78</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>15</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2.3020833333333335E-4</v>
       </c>
-      <c r="L61" s="2">
+      <c r="M61" s="2">
         <f t="shared" si="0"/>
         <v>19.89</v>
       </c>
-      <c r="M61" s="4">
+      <c r="N61" s="4">
         <v>1843632</v>
       </c>
-      <c r="N61" s="5">
+      <c r="O61" s="5">
         <f t="shared" si="1"/>
         <v>1843.6320000000001</v>
       </c>
-      <c r="O61" s="1">
+      <c r="P61" s="1">
         <v>1.79</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -4279,30 +4471,33 @@
         <v>32</v>
       </c>
       <c r="I62" t="s">
+        <v>121</v>
+      </c>
+      <c r="J62" t="s">
         <v>79</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>15</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2.7115740740740741E-3</v>
       </c>
-      <c r="L62" s="2">
+      <c r="M62" s="2">
         <f t="shared" si="0"/>
         <v>234.28</v>
       </c>
-      <c r="M62" s="4">
+      <c r="N62" s="4">
         <v>13486308</v>
       </c>
-      <c r="N62" s="5">
+      <c r="O62" s="5">
         <f t="shared" si="1"/>
         <v>13486.308000000001</v>
       </c>
-      <c r="O62" s="1">
+      <c r="P62" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -4328,30 +4523,33 @@
         <v>32</v>
       </c>
       <c r="I63" t="s">
+        <v>121</v>
+      </c>
+      <c r="J63" t="s">
         <v>80</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>15</v>
       </c>
-      <c r="K63" s="3">
+      <c r="L63" s="3">
         <v>2.7303240740740743E-3</v>
       </c>
-      <c r="L63" s="2">
+      <c r="M63" s="2">
         <f t="shared" si="0"/>
         <v>235.9</v>
       </c>
-      <c r="M63" s="4">
+      <c r="N63" s="4">
         <v>13480252</v>
       </c>
-      <c r="N63" s="5">
+      <c r="O63" s="5">
         <f t="shared" si="1"/>
         <v>13480.252</v>
       </c>
-      <c r="O63" s="1">
+      <c r="P63" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -4377,30 +4575,33 @@
         <v>32</v>
       </c>
       <c r="I64" t="s">
+        <v>121</v>
+      </c>
+      <c r="J64" t="s">
         <v>81</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>15</v>
       </c>
-      <c r="K64" s="3">
+      <c r="L64" s="3">
         <v>2.6790509259259254E-3</v>
       </c>
-      <c r="L64" s="2">
+      <c r="M64" s="2">
         <f t="shared" si="0"/>
         <v>231.46999999999997</v>
       </c>
-      <c r="M64" s="4">
+      <c r="N64" s="4">
         <v>13480172</v>
       </c>
-      <c r="N64" s="5">
+      <c r="O64" s="5">
         <f t="shared" si="1"/>
         <v>13480.172</v>
       </c>
-      <c r="O64" s="1">
+      <c r="P64" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -4426,30 +4627,33 @@
         <v>32</v>
       </c>
       <c r="I65" t="s">
+        <v>121</v>
+      </c>
+      <c r="J65" t="s">
         <v>82</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>15</v>
       </c>
-      <c r="K65" s="3">
+      <c r="L65" s="3">
         <v>2.6704861111111113E-3</v>
       </c>
-      <c r="L65" s="2">
+      <c r="M65" s="2">
         <f t="shared" si="0"/>
         <v>230.73000000000002</v>
       </c>
-      <c r="M65" s="4">
+      <c r="N65" s="4">
         <v>13480544</v>
       </c>
-      <c r="N65" s="5">
+      <c r="O65" s="5">
         <f t="shared" si="1"/>
         <v>13480.544</v>
       </c>
-      <c r="O65" s="1">
+      <c r="P65" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -4475,30 +4679,33 @@
         <v>32</v>
       </c>
       <c r="I66" t="s">
+        <v>121</v>
+      </c>
+      <c r="J66" t="s">
         <v>83</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>15</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2.7542824074074071E-3</v>
       </c>
-      <c r="L66" s="2">
+      <c r="M66" s="2">
         <f t="shared" si="0"/>
         <v>237.96999999999997</v>
       </c>
-      <c r="M66" s="4">
+      <c r="N66" s="4">
         <v>13488304</v>
       </c>
-      <c r="N66" s="5">
+      <c r="O66" s="5">
         <f t="shared" si="1"/>
         <v>13488.304</v>
       </c>
-      <c r="O66" s="1">
+      <c r="P66" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -4524,30 +4731,33 @@
         <v>32</v>
       </c>
       <c r="I67" t="s">
+        <v>121</v>
+      </c>
+      <c r="J67" t="s">
         <v>84</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>15</v>
       </c>
-      <c r="K67" s="3">
+      <c r="L67" s="3">
         <v>2.7018518518518515E-3</v>
       </c>
-      <c r="L67" s="2">
-        <f t="shared" ref="L67:L130" si="2">K67*86400</f>
+      <c r="M67" s="2">
+        <f t="shared" ref="M67:M130" si="2">L67*86400</f>
         <v>233.43999999999997</v>
       </c>
-      <c r="M67" s="4">
+      <c r="N67" s="4">
         <v>13500040</v>
       </c>
-      <c r="N67" s="5">
-        <f t="shared" ref="N67:N130" si="3">M67/1000</f>
+      <c r="O67" s="5">
+        <f t="shared" ref="O67:O130" si="3">N67/1000</f>
         <v>13500.04</v>
       </c>
-      <c r="O67" s="1">
+      <c r="P67" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -4573,30 +4783,33 @@
         <v>32</v>
       </c>
       <c r="I68" t="s">
+        <v>121</v>
+      </c>
+      <c r="J68" t="s">
         <v>85</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>15</v>
       </c>
-      <c r="K68" s="3">
+      <c r="L68" s="3">
         <v>2.6817129629629634E-3</v>
       </c>
-      <c r="L68" s="2">
+      <c r="M68" s="2">
         <f t="shared" si="2"/>
         <v>231.70000000000005</v>
       </c>
-      <c r="M68" s="4">
+      <c r="N68" s="4">
         <v>13496004</v>
       </c>
-      <c r="N68" s="5">
+      <c r="O68" s="5">
         <f t="shared" si="3"/>
         <v>13496.004000000001</v>
       </c>
-      <c r="O68" s="1">
+      <c r="P68" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -4622,30 +4835,33 @@
         <v>32</v>
       </c>
       <c r="I69" t="s">
+        <v>121</v>
+      </c>
+      <c r="J69" t="s">
         <v>86</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>15</v>
       </c>
-      <c r="K69" s="3">
+      <c r="L69" s="3">
         <v>2.6982638888888889E-3</v>
       </c>
-      <c r="L69" s="2">
+      <c r="M69" s="2">
         <f t="shared" si="2"/>
         <v>233.13</v>
       </c>
-      <c r="M69" s="4">
+      <c r="N69" s="4">
         <v>13494508</v>
       </c>
-      <c r="N69" s="5">
+      <c r="O69" s="5">
         <f t="shared" si="3"/>
         <v>13494.508</v>
       </c>
-      <c r="O69" s="1">
+      <c r="P69" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -4671,30 +4887,33 @@
         <v>32</v>
       </c>
       <c r="I70" t="s">
+        <v>121</v>
+      </c>
+      <c r="J70" t="s">
         <v>87</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>15</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>2.6646990740740741E-3</v>
       </c>
-      <c r="L70" s="2">
+      <c r="M70" s="2">
         <f t="shared" si="2"/>
         <v>230.23</v>
       </c>
-      <c r="M70" s="4">
+      <c r="N70" s="4">
         <v>13488736</v>
       </c>
-      <c r="N70" s="5">
+      <c r="O70" s="5">
         <f t="shared" si="3"/>
         <v>13488.736000000001</v>
       </c>
-      <c r="O70" s="1">
+      <c r="P70" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -4720,30 +4939,33 @@
         <v>32</v>
       </c>
       <c r="I71" t="s">
+        <v>121</v>
+      </c>
+      <c r="J71" t="s">
         <v>88</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>15</v>
       </c>
-      <c r="K71" s="3">
+      <c r="L71" s="3">
         <v>2.7484953703703703E-3</v>
       </c>
-      <c r="L71" s="2">
+      <c r="M71" s="2">
         <f t="shared" si="2"/>
         <v>237.47</v>
       </c>
-      <c r="M71" s="4">
+      <c r="N71" s="4">
         <v>13500588</v>
       </c>
-      <c r="N71" s="5">
+      <c r="O71" s="5">
         <f t="shared" si="3"/>
         <v>13500.588</v>
       </c>
-      <c r="O71" s="1">
+      <c r="P71" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -4769,30 +4991,33 @@
         <v>32</v>
       </c>
       <c r="I72" t="s">
+        <v>121</v>
+      </c>
+      <c r="J72" t="s">
         <v>89</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>15</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3.0322916666666671E-3</v>
       </c>
-      <c r="L72" s="2">
+      <c r="M72" s="2">
         <f t="shared" si="2"/>
         <v>261.99</v>
       </c>
-      <c r="M72" s="4">
+      <c r="N72" s="4">
         <v>6508132</v>
       </c>
-      <c r="N72" s="5">
+      <c r="O72" s="5">
         <f t="shared" si="3"/>
         <v>6508.1319999999996</v>
       </c>
-      <c r="O72" s="1">
+      <c r="P72" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -4818,30 +5043,33 @@
         <v>32</v>
       </c>
       <c r="I73" t="s">
+        <v>121</v>
+      </c>
+      <c r="J73" t="s">
         <v>90</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>15</v>
       </c>
-      <c r="K73" s="3">
+      <c r="L73" s="3">
         <v>2.972222222222222E-3</v>
       </c>
-      <c r="L73" s="2">
+      <c r="M73" s="2">
         <f t="shared" si="2"/>
         <v>256.79999999999995</v>
       </c>
-      <c r="M73" s="4">
+      <c r="N73" s="4">
         <v>6508788</v>
       </c>
-      <c r="N73" s="5">
+      <c r="O73" s="5">
         <f t="shared" si="3"/>
         <v>6508.7879999999996</v>
       </c>
-      <c r="O73" s="1">
+      <c r="P73" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -4867,30 +5095,33 @@
         <v>32</v>
       </c>
       <c r="I74" t="s">
+        <v>121</v>
+      </c>
+      <c r="J74" t="s">
         <v>91</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>15</v>
       </c>
-      <c r="K74" s="3">
+      <c r="L74" s="3">
         <v>3.0150462962962965E-3</v>
       </c>
-      <c r="L74" s="2">
+      <c r="M74" s="2">
         <f t="shared" si="2"/>
         <v>260.5</v>
       </c>
-      <c r="M74" s="4">
+      <c r="N74" s="4">
         <v>6508264</v>
       </c>
-      <c r="N74" s="5">
+      <c r="O74" s="5">
         <f t="shared" si="3"/>
         <v>6508.2640000000001</v>
       </c>
-      <c r="O74" s="1">
+      <c r="P74" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -4916,30 +5147,33 @@
         <v>32</v>
       </c>
       <c r="I75" t="s">
+        <v>121</v>
+      </c>
+      <c r="J75" t="s">
         <v>92</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>15</v>
       </c>
-      <c r="K75" s="3">
+      <c r="L75" s="3">
         <v>2.9905092592592587E-3</v>
       </c>
-      <c r="L75" s="2">
+      <c r="M75" s="2">
         <f t="shared" si="2"/>
         <v>258.37999999999994</v>
       </c>
-      <c r="M75" s="4">
+      <c r="N75" s="4">
         <v>6506688</v>
       </c>
-      <c r="N75" s="5">
+      <c r="O75" s="5">
         <f t="shared" si="3"/>
         <v>6506.6880000000001</v>
       </c>
-      <c r="O75" s="1">
+      <c r="P75" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -4965,30 +5199,33 @@
         <v>32</v>
       </c>
       <c r="I76" t="s">
+        <v>121</v>
+      </c>
+      <c r="J76" t="s">
         <v>93</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>15</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3.0115740740740745E-3</v>
       </c>
-      <c r="L76" s="2">
+      <c r="M76" s="2">
         <f t="shared" si="2"/>
         <v>260.20000000000005</v>
       </c>
-      <c r="M76" s="4">
+      <c r="N76" s="4">
         <v>6509404</v>
       </c>
-      <c r="N76" s="5">
+      <c r="O76" s="5">
         <f t="shared" si="3"/>
         <v>6509.4040000000005</v>
       </c>
-      <c r="O76" s="1">
+      <c r="P76" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -5014,30 +5251,33 @@
         <v>32</v>
       </c>
       <c r="I77" t="s">
+        <v>121</v>
+      </c>
+      <c r="J77" t="s">
         <v>94</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>15</v>
       </c>
-      <c r="K77" s="3">
+      <c r="L77" s="3">
         <v>3.0358796296296297E-3</v>
       </c>
-      <c r="L77" s="2">
+      <c r="M77" s="2">
         <f t="shared" si="2"/>
         <v>262.3</v>
       </c>
-      <c r="M77" s="4">
+      <c r="N77" s="4">
         <v>6505652</v>
       </c>
-      <c r="N77" s="5">
+      <c r="O77" s="5">
         <f t="shared" si="3"/>
         <v>6505.652</v>
       </c>
-      <c r="O77" s="1">
+      <c r="P77" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -5063,30 +5303,33 @@
         <v>32</v>
       </c>
       <c r="I78" t="s">
+        <v>121</v>
+      </c>
+      <c r="J78" t="s">
         <v>95</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>15</v>
       </c>
-      <c r="K78" s="3">
+      <c r="L78" s="3">
         <v>2.9725694444444443E-3</v>
       </c>
-      <c r="L78" s="2">
+      <c r="M78" s="2">
         <f t="shared" si="2"/>
         <v>256.83</v>
       </c>
-      <c r="M78" s="4">
+      <c r="N78" s="4">
         <v>6509500</v>
       </c>
-      <c r="N78" s="5">
+      <c r="O78" s="5">
         <f t="shared" si="3"/>
         <v>6509.5</v>
       </c>
-      <c r="O78" s="1">
+      <c r="P78" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -5112,30 +5355,33 @@
         <v>32</v>
       </c>
       <c r="I79" t="s">
+        <v>121</v>
+      </c>
+      <c r="J79" t="s">
         <v>96</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>15</v>
       </c>
-      <c r="K79" s="3">
+      <c r="L79" s="3">
         <v>3.0820601851851855E-3</v>
       </c>
-      <c r="L79" s="2">
+      <c r="M79" s="2">
         <f t="shared" si="2"/>
         <v>266.29000000000002</v>
       </c>
-      <c r="M79" s="4">
+      <c r="N79" s="4">
         <v>6507124</v>
       </c>
-      <c r="N79" s="5">
+      <c r="O79" s="5">
         <f t="shared" si="3"/>
         <v>6507.1239999999998</v>
       </c>
-      <c r="O79" s="1">
+      <c r="P79" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -5161,30 +5407,33 @@
         <v>32</v>
       </c>
       <c r="I80" t="s">
+        <v>121</v>
+      </c>
+      <c r="J80" t="s">
         <v>97</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>15</v>
       </c>
-      <c r="K80" s="3">
+      <c r="L80" s="3">
         <v>3.0229166666666664E-3</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <f t="shared" si="2"/>
         <v>261.17999999999995</v>
       </c>
-      <c r="M80" s="4">
+      <c r="N80" s="4">
         <v>6509392</v>
       </c>
-      <c r="N80" s="5">
+      <c r="O80" s="5">
         <f t="shared" si="3"/>
         <v>6509.3919999999998</v>
       </c>
-      <c r="O80" s="1">
+      <c r="P80" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -5210,30 +5459,33 @@
         <v>32</v>
       </c>
       <c r="I81" t="s">
+        <v>121</v>
+      </c>
+      <c r="J81" t="s">
         <v>98</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>15</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3.0515046296296297E-3</v>
       </c>
-      <c r="L81" s="2">
+      <c r="M81" s="2">
         <f t="shared" si="2"/>
         <v>263.65000000000003</v>
       </c>
-      <c r="M81" s="4">
+      <c r="N81" s="4">
         <v>6508028</v>
       </c>
-      <c r="N81" s="5">
+      <c r="O81" s="5">
         <f t="shared" si="3"/>
         <v>6508.0280000000002</v>
       </c>
-      <c r="O81" s="1">
+      <c r="P81" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -5259,30 +5511,33 @@
         <v>32</v>
       </c>
       <c r="I82" t="s">
+        <v>121</v>
+      </c>
+      <c r="J82" t="s">
         <v>99</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>15</v>
       </c>
-      <c r="K82" s="3">
+      <c r="L82" s="3">
         <v>3.0414351851851852E-3</v>
       </c>
-      <c r="L82" s="2">
+      <c r="M82" s="2">
         <f t="shared" si="2"/>
         <v>262.78000000000003</v>
       </c>
-      <c r="M82" s="4">
+      <c r="N82" s="4">
         <v>20661916</v>
       </c>
-      <c r="N82" s="5">
+      <c r="O82" s="5">
         <f t="shared" si="3"/>
         <v>20661.916000000001</v>
       </c>
-      <c r="O82" s="1">
+      <c r="P82" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -5308,30 +5563,33 @@
         <v>32</v>
       </c>
       <c r="I83" t="s">
+        <v>121</v>
+      </c>
+      <c r="J83" t="s">
         <v>100</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>15</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2.9831018518518518E-3</v>
       </c>
-      <c r="L83" s="2">
+      <c r="M83" s="2">
         <f t="shared" si="2"/>
         <v>257.74</v>
       </c>
-      <c r="M83" s="4">
+      <c r="N83" s="4">
         <v>20616868</v>
       </c>
-      <c r="N83" s="5">
+      <c r="O83" s="5">
         <f t="shared" si="3"/>
         <v>20616.867999999999</v>
       </c>
-      <c r="O83" s="1">
+      <c r="P83" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -5357,30 +5615,33 @@
         <v>32</v>
       </c>
       <c r="I84" t="s">
+        <v>121</v>
+      </c>
+      <c r="J84" t="s">
         <v>101</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>15</v>
       </c>
-      <c r="K84" s="3">
+      <c r="L84" s="3">
         <v>2.9792824074074075E-3</v>
       </c>
-      <c r="L84" s="2">
+      <c r="M84" s="2">
         <f t="shared" si="2"/>
         <v>257.41000000000003</v>
       </c>
-      <c r="M84" s="4">
+      <c r="N84" s="4">
         <v>20658812</v>
       </c>
-      <c r="N84" s="5">
+      <c r="O84" s="5">
         <f t="shared" si="3"/>
         <v>20658.812000000002</v>
       </c>
-      <c r="O84" s="1">
+      <c r="P84" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -5406,30 +5667,33 @@
         <v>32</v>
       </c>
       <c r="I85" t="s">
+        <v>121</v>
+      </c>
+      <c r="J85" t="s">
         <v>102</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>15</v>
       </c>
-      <c r="K85" s="3">
+      <c r="L85" s="3">
         <v>2.9937499999999999E-3</v>
       </c>
-      <c r="L85" s="2">
+      <c r="M85" s="2">
         <f t="shared" si="2"/>
         <v>258.65999999999997</v>
       </c>
-      <c r="M85" s="4">
+      <c r="N85" s="4">
         <v>20646228</v>
       </c>
-      <c r="N85" s="5">
+      <c r="O85" s="5">
         <f t="shared" si="3"/>
         <v>20646.227999999999</v>
       </c>
-      <c r="O85" s="1">
+      <c r="P85" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -5455,30 +5719,33 @@
         <v>32</v>
       </c>
       <c r="I86" t="s">
+        <v>121</v>
+      </c>
+      <c r="J86" t="s">
         <v>103</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>15</v>
       </c>
-      <c r="K86" s="3">
+      <c r="L86" s="3">
         <v>3.0677083333333337E-3</v>
       </c>
-      <c r="L86" s="2">
+      <c r="M86" s="2">
         <f t="shared" si="2"/>
         <v>265.05</v>
       </c>
-      <c r="M86" s="4">
+      <c r="N86" s="4">
         <v>20629016</v>
       </c>
-      <c r="N86" s="5">
+      <c r="O86" s="5">
         <f t="shared" si="3"/>
         <v>20629.016</v>
       </c>
-      <c r="O86" s="1">
+      <c r="P86" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -5504,30 +5771,33 @@
         <v>32</v>
       </c>
       <c r="I87" t="s">
+        <v>121</v>
+      </c>
+      <c r="J87" t="s">
         <v>104</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>15</v>
       </c>
-      <c r="K87" s="3">
+      <c r="L87" s="3">
         <v>2.9815972222222223E-3</v>
       </c>
-      <c r="L87" s="2">
+      <c r="M87" s="2">
         <f t="shared" si="2"/>
         <v>257.61</v>
       </c>
-      <c r="M87" s="4">
+      <c r="N87" s="4">
         <v>20619840</v>
       </c>
-      <c r="N87" s="5">
+      <c r="O87" s="5">
         <f t="shared" si="3"/>
         <v>20619.84</v>
       </c>
-      <c r="O87" s="1">
+      <c r="P87" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -5553,30 +5823,33 @@
         <v>32</v>
       </c>
       <c r="I88" t="s">
+        <v>121</v>
+      </c>
+      <c r="J88" t="s">
         <v>105</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>15</v>
       </c>
-      <c r="K88" s="3">
+      <c r="L88" s="3">
         <v>3.0555555555555557E-3</v>
       </c>
-      <c r="L88" s="2">
+      <c r="M88" s="2">
         <f t="shared" si="2"/>
         <v>264</v>
       </c>
-      <c r="M88" s="4">
+      <c r="N88" s="4">
         <v>20627032</v>
       </c>
-      <c r="N88" s="5">
+      <c r="O88" s="5">
         <f t="shared" si="3"/>
         <v>20627.031999999999</v>
       </c>
-      <c r="O88" s="1">
+      <c r="P88" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>2</v>
       </c>
@@ -5602,30 +5875,33 @@
         <v>32</v>
       </c>
       <c r="I89" t="s">
+        <v>121</v>
+      </c>
+      <c r="J89" t="s">
         <v>106</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>15</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3.0192129629629631E-3</v>
       </c>
-      <c r="L89" s="2">
+      <c r="M89" s="2">
         <f t="shared" si="2"/>
         <v>260.86</v>
       </c>
-      <c r="M89" s="4">
+      <c r="N89" s="4">
         <v>20618756</v>
       </c>
-      <c r="N89" s="5">
+      <c r="O89" s="5">
         <f t="shared" si="3"/>
         <v>20618.756000000001</v>
       </c>
-      <c r="O89" s="1">
+      <c r="P89" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -5651,30 +5927,33 @@
         <v>32</v>
       </c>
       <c r="I90" t="s">
+        <v>121</v>
+      </c>
+      <c r="J90" t="s">
         <v>107</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>15</v>
       </c>
-      <c r="K90" s="3">
+      <c r="L90" s="3">
         <v>3.0030092592592595E-3</v>
       </c>
-      <c r="L90" s="2">
+      <c r="M90" s="2">
         <f t="shared" si="2"/>
         <v>259.46000000000004</v>
       </c>
-      <c r="M90" s="4">
+      <c r="N90" s="4">
         <v>20635164</v>
       </c>
-      <c r="N90" s="5">
+      <c r="O90" s="5">
         <f t="shared" si="3"/>
         <v>20635.164000000001</v>
       </c>
-      <c r="O90" s="1">
+      <c r="P90" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -5700,30 +5979,33 @@
         <v>32</v>
       </c>
       <c r="I91" t="s">
+        <v>121</v>
+      </c>
+      <c r="J91" t="s">
         <v>108</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>15</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>3.0704861111111111E-3</v>
       </c>
-      <c r="L91" s="2">
+      <c r="M91" s="2">
         <f t="shared" si="2"/>
         <v>265.29000000000002</v>
       </c>
-      <c r="M91" s="4">
+      <c r="N91" s="4">
         <v>20593224</v>
       </c>
-      <c r="N91" s="5">
+      <c r="O91" s="5">
         <f t="shared" si="3"/>
         <v>20593.223999999998</v>
       </c>
-      <c r="O91" s="1">
+      <c r="P91" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -5749,27 +6031,30 @@
         <v>8</v>
       </c>
       <c r="I92" t="s">
+        <v>120</v>
+      </c>
+      <c r="J92" t="s">
         <v>18</v>
       </c>
-      <c r="K92" s="6">
+      <c r="L92" s="6">
         <v>2.0601851851851853E-5</v>
       </c>
-      <c r="L92" s="2">
+      <c r="M92" s="2">
         <f t="shared" si="2"/>
         <v>1.78</v>
       </c>
-      <c r="M92">
+      <c r="N92">
         <v>59184</v>
       </c>
-      <c r="N92" s="5">
+      <c r="O92" s="5">
         <f t="shared" si="3"/>
         <v>59.183999999999997</v>
       </c>
-      <c r="O92" s="1">
+      <c r="P92" s="1">
         <v>7.38</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -5795,27 +6080,30 @@
         <v>8</v>
       </c>
       <c r="I93" t="s">
+        <v>120</v>
+      </c>
+      <c r="J93" t="s">
         <v>18</v>
       </c>
-      <c r="K93" s="6">
+      <c r="L93" s="6">
         <v>2.0601851851851853E-5</v>
       </c>
-      <c r="L93" s="2">
+      <c r="M93" s="2">
         <f t="shared" si="2"/>
         <v>1.78</v>
       </c>
-      <c r="M93">
+      <c r="N93">
         <v>57648</v>
       </c>
-      <c r="N93" s="5">
+      <c r="O93" s="5">
         <f t="shared" si="3"/>
         <v>57.648000000000003</v>
       </c>
-      <c r="O93" s="1">
+      <c r="P93" s="1">
         <v>7.38</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -5841,27 +6129,30 @@
         <v>8</v>
       </c>
       <c r="I94" t="s">
+        <v>120</v>
+      </c>
+      <c r="J94" t="s">
         <v>18</v>
       </c>
-      <c r="K94" s="6">
+      <c r="L94" s="6">
         <v>2.0601851851851853E-5</v>
       </c>
-      <c r="L94" s="2">
+      <c r="M94" s="2">
         <f t="shared" si="2"/>
         <v>1.78</v>
       </c>
-      <c r="M94">
+      <c r="N94">
         <v>58272</v>
       </c>
-      <c r="N94" s="5">
+      <c r="O94" s="5">
         <f t="shared" si="3"/>
         <v>58.271999999999998</v>
       </c>
-      <c r="O94" s="1">
+      <c r="P94" s="1">
         <v>7.36</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -5887,27 +6178,30 @@
         <v>8</v>
       </c>
       <c r="I95" t="s">
+        <v>120</v>
+      </c>
+      <c r="J95" t="s">
         <v>18</v>
       </c>
-      <c r="K95" s="6">
+      <c r="L95" s="6">
         <v>2.0601851851851853E-5</v>
       </c>
-      <c r="L95" s="2">
+      <c r="M95" s="2">
         <f t="shared" si="2"/>
         <v>1.78</v>
       </c>
-      <c r="M95">
+      <c r="N95">
         <v>58288</v>
       </c>
-      <c r="N95" s="5">
+      <c r="O95" s="5">
         <f t="shared" si="3"/>
         <v>58.287999999999997</v>
       </c>
-      <c r="O95" s="1">
+      <c r="P95" s="1">
         <v>7.39</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -5933,27 +6227,30 @@
         <v>8</v>
       </c>
       <c r="I96" t="s">
+        <v>120</v>
+      </c>
+      <c r="J96" t="s">
         <v>18</v>
       </c>
-      <c r="K96" s="6">
+      <c r="L96" s="6">
         <v>2.0486111111111113E-5</v>
       </c>
-      <c r="L96" s="2">
+      <c r="M96" s="2">
         <f t="shared" si="2"/>
         <v>1.77</v>
       </c>
-      <c r="M96">
+      <c r="N96">
         <v>57984</v>
       </c>
-      <c r="N96" s="5">
+      <c r="O96" s="5">
         <f t="shared" si="3"/>
         <v>57.984000000000002</v>
       </c>
-      <c r="O96" s="1">
+      <c r="P96" s="1">
         <v>7.45</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -5979,27 +6276,30 @@
         <v>8</v>
       </c>
       <c r="I97" t="s">
+        <v>120</v>
+      </c>
+      <c r="J97" t="s">
         <v>18</v>
       </c>
-      <c r="K97" s="6">
+      <c r="L97" s="6">
         <v>2.0601851851851853E-5</v>
       </c>
-      <c r="L97" s="2">
+      <c r="M97" s="2">
         <f t="shared" si="2"/>
         <v>1.78</v>
       </c>
-      <c r="M97">
+      <c r="N97">
         <v>58448</v>
       </c>
-      <c r="N97" s="5">
+      <c r="O97" s="5">
         <f t="shared" si="3"/>
         <v>58.448</v>
       </c>
-      <c r="O97" s="1">
+      <c r="P97" s="1">
         <v>7.4</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -6025,27 +6325,30 @@
         <v>8</v>
       </c>
       <c r="I98" t="s">
+        <v>120</v>
+      </c>
+      <c r="J98" t="s">
         <v>18</v>
       </c>
-      <c r="K98" s="6">
+      <c r="L98" s="6">
         <v>2.0601851851851853E-5</v>
       </c>
-      <c r="L98" s="2">
+      <c r="M98" s="2">
         <f t="shared" si="2"/>
         <v>1.78</v>
       </c>
-      <c r="M98">
+      <c r="N98">
         <v>58000</v>
       </c>
-      <c r="N98" s="5">
+      <c r="O98" s="5">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="O98" s="1">
+      <c r="P98" s="1">
         <v>7.39</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -6071,27 +6374,30 @@
         <v>8</v>
       </c>
       <c r="I99" t="s">
+        <v>120</v>
+      </c>
+      <c r="J99" t="s">
         <v>18</v>
       </c>
-      <c r="K99" s="6">
+      <c r="L99" s="6">
         <v>2.141203703703704E-5</v>
       </c>
-      <c r="L99" s="2">
+      <c r="M99" s="2">
         <f t="shared" si="2"/>
         <v>1.8500000000000003</v>
       </c>
-      <c r="M99">
+      <c r="N99">
         <v>58256</v>
       </c>
-      <c r="N99" s="5">
+      <c r="O99" s="5">
         <f t="shared" si="3"/>
         <v>58.256</v>
       </c>
-      <c r="O99" s="1">
+      <c r="P99" s="1">
         <v>7.08</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -6117,27 +6423,30 @@
         <v>8</v>
       </c>
       <c r="I100" t="s">
+        <v>120</v>
+      </c>
+      <c r="J100" t="s">
         <v>18</v>
       </c>
-      <c r="K100" s="6">
+      <c r="L100" s="6">
         <v>2.0486111111111113E-5</v>
       </c>
-      <c r="L100" s="2">
+      <c r="M100" s="2">
         <f t="shared" si="2"/>
         <v>1.77</v>
       </c>
-      <c r="M100">
+      <c r="N100">
         <v>59344</v>
       </c>
-      <c r="N100" s="5">
+      <c r="O100" s="5">
         <f t="shared" si="3"/>
         <v>59.344000000000001</v>
       </c>
-      <c r="O100" s="1">
+      <c r="P100" s="1">
         <v>7.41</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -6163,27 +6472,30 @@
         <v>8</v>
       </c>
       <c r="I101" t="s">
+        <v>120</v>
+      </c>
+      <c r="J101" t="s">
         <v>18</v>
       </c>
-      <c r="K101" s="6">
+      <c r="L101" s="6">
         <v>2.0486111111111113E-5</v>
       </c>
-      <c r="L101" s="2">
+      <c r="M101" s="2">
         <f t="shared" si="2"/>
         <v>1.77</v>
       </c>
-      <c r="M101">
+      <c r="N101">
         <v>58176</v>
       </c>
-      <c r="N101" s="5">
+      <c r="O101" s="5">
         <f t="shared" si="3"/>
         <v>58.176000000000002</v>
       </c>
-      <c r="O101" s="1">
+      <c r="P101" s="1">
         <v>7.43</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -6209,27 +6521,30 @@
         <v>8</v>
       </c>
       <c r="I102" t="s">
+        <v>120</v>
+      </c>
+      <c r="J102" t="s">
         <v>18</v>
       </c>
-      <c r="K102" s="6">
+      <c r="L102" s="6">
         <v>3.0324074074074077E-5</v>
       </c>
-      <c r="L102" s="2">
+      <c r="M102" s="2">
         <f t="shared" si="2"/>
         <v>2.62</v>
       </c>
-      <c r="M102">
+      <c r="N102">
         <v>137008</v>
       </c>
-      <c r="N102" s="5">
+      <c r="O102" s="5">
         <f t="shared" si="3"/>
         <v>137.00800000000001</v>
       </c>
-      <c r="O102" s="1">
+      <c r="P102" s="1">
         <v>6.07</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -6255,27 +6570,30 @@
         <v>8</v>
       </c>
       <c r="I103" t="s">
+        <v>120</v>
+      </c>
+      <c r="J103" t="s">
         <v>18</v>
       </c>
-      <c r="K103" s="6">
+      <c r="L103" s="6">
         <v>2.6157407407407402E-5</v>
       </c>
-      <c r="L103" s="2">
+      <c r="M103" s="2">
         <f t="shared" si="2"/>
         <v>2.2599999999999993</v>
       </c>
-      <c r="M103">
+      <c r="N103">
         <v>114160</v>
       </c>
-      <c r="N103" s="5">
+      <c r="O103" s="5">
         <f t="shared" si="3"/>
         <v>114.16</v>
       </c>
-      <c r="O103" s="1">
+      <c r="P103" s="1">
         <v>7.17</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -6301,27 +6619,30 @@
         <v>8</v>
       </c>
       <c r="I104" t="s">
+        <v>120</v>
+      </c>
+      <c r="J104" t="s">
         <v>18</v>
       </c>
-      <c r="K104" s="6">
+      <c r="L104" s="6">
         <v>2.6388888888888892E-5</v>
       </c>
-      <c r="L104" s="2">
+      <c r="M104" s="2">
         <f t="shared" si="2"/>
         <v>2.2800000000000002</v>
       </c>
-      <c r="M104">
+      <c r="N104">
         <v>114464</v>
       </c>
-      <c r="N104" s="5">
+      <c r="O104" s="5">
         <f t="shared" si="3"/>
         <v>114.464</v>
       </c>
-      <c r="O104" s="1">
+      <c r="P104" s="1">
         <v>7.12</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -6347,27 +6668,30 @@
         <v>8</v>
       </c>
       <c r="I105" t="s">
+        <v>120</v>
+      </c>
+      <c r="J105" t="s">
         <v>18</v>
       </c>
-      <c r="K105" s="6">
+      <c r="L105" s="6">
         <v>2.6388888888888892E-5</v>
       </c>
-      <c r="L105" s="2">
+      <c r="M105" s="2">
         <f t="shared" si="2"/>
         <v>2.2800000000000002</v>
       </c>
-      <c r="M105">
+      <c r="N105">
         <v>116336</v>
       </c>
-      <c r="N105" s="5">
+      <c r="O105" s="5">
         <f t="shared" si="3"/>
         <v>116.336</v>
       </c>
-      <c r="O105" s="1">
+      <c r="P105" s="1">
         <v>7.11</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -6393,27 +6717,30 @@
         <v>8</v>
       </c>
       <c r="I106" t="s">
+        <v>120</v>
+      </c>
+      <c r="J106" t="s">
         <v>18</v>
       </c>
-      <c r="K106" s="6">
+      <c r="L106" s="6">
         <v>2.6388888888888892E-5</v>
       </c>
-      <c r="L106" s="2">
+      <c r="M106" s="2">
         <f t="shared" si="2"/>
         <v>2.2800000000000002</v>
       </c>
-      <c r="M106">
+      <c r="N106">
         <v>117712</v>
       </c>
-      <c r="N106" s="5">
+      <c r="O106" s="5">
         <f t="shared" si="3"/>
         <v>117.712</v>
       </c>
-      <c r="O106" s="1">
+      <c r="P106" s="1">
         <v>7.08</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -6439,27 +6766,30 @@
         <v>8</v>
       </c>
       <c r="I107" t="s">
+        <v>120</v>
+      </c>
+      <c r="J107" t="s">
         <v>18</v>
       </c>
-      <c r="K107" s="6">
+      <c r="L107" s="6">
         <v>2.6157407407407402E-5</v>
       </c>
-      <c r="L107" s="2">
+      <c r="M107" s="2">
         <f t="shared" si="2"/>
         <v>2.2599999999999993</v>
       </c>
-      <c r="M107">
+      <c r="N107">
         <v>115728</v>
       </c>
-      <c r="N107" s="5">
+      <c r="O107" s="5">
         <f t="shared" si="3"/>
         <v>115.72799999999999</v>
       </c>
-      <c r="O107" s="1">
+      <c r="P107" s="1">
         <v>7.17</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -6485,27 +6815,30 @@
         <v>8</v>
       </c>
       <c r="I108" t="s">
+        <v>120</v>
+      </c>
+      <c r="J108" t="s">
         <v>18</v>
       </c>
-      <c r="K108" s="6">
+      <c r="L108" s="6">
         <v>2.6157407407407402E-5</v>
       </c>
-      <c r="L108" s="2">
+      <c r="M108" s="2">
         <f t="shared" si="2"/>
         <v>2.2599999999999993</v>
       </c>
-      <c r="M108">
+      <c r="N108">
         <v>115280</v>
       </c>
-      <c r="N108" s="5">
+      <c r="O108" s="5">
         <f t="shared" si="3"/>
         <v>115.28</v>
       </c>
-      <c r="O108" s="1">
+      <c r="P108" s="1">
         <v>7.19</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -6531,27 +6864,30 @@
         <v>8</v>
       </c>
       <c r="I109" t="s">
+        <v>120</v>
+      </c>
+      <c r="J109" t="s">
         <v>18</v>
       </c>
-      <c r="K109" s="6">
+      <c r="L109" s="6">
         <v>2.6041666666666668E-5</v>
       </c>
-      <c r="L109" s="2">
+      <c r="M109" s="2">
         <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
-      <c r="M109">
+      <c r="N109">
         <v>115056</v>
       </c>
-      <c r="N109" s="5">
+      <c r="O109" s="5">
         <f t="shared" si="3"/>
         <v>115.056</v>
       </c>
-      <c r="O109" s="1">
+      <c r="P109" s="1">
         <v>7.22</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -6577,27 +6913,30 @@
         <v>8</v>
       </c>
       <c r="I110" t="s">
+        <v>120</v>
+      </c>
+      <c r="J110" t="s">
         <v>18</v>
       </c>
-      <c r="K110" s="6">
+      <c r="L110" s="6">
         <v>2.6157407407407402E-5</v>
       </c>
-      <c r="L110" s="2">
+      <c r="M110" s="2">
         <f t="shared" si="2"/>
         <v>2.2599999999999993</v>
       </c>
-      <c r="M110">
+      <c r="N110">
         <v>116688</v>
       </c>
-      <c r="N110" s="5">
+      <c r="O110" s="5">
         <f t="shared" si="3"/>
         <v>116.688</v>
       </c>
-      <c r="O110" s="1">
+      <c r="P110" s="1">
         <v>7.19</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -6623,27 +6962,30 @@
         <v>8</v>
       </c>
       <c r="I111" t="s">
+        <v>120</v>
+      </c>
+      <c r="J111" t="s">
         <v>18</v>
       </c>
-      <c r="K111" s="6">
+      <c r="L111" s="6">
         <v>2.6157407407407402E-5</v>
       </c>
-      <c r="L111" s="2">
+      <c r="M111" s="2">
         <f t="shared" si="2"/>
         <v>2.2599999999999993</v>
       </c>
-      <c r="M111">
+      <c r="N111">
         <v>115024</v>
       </c>
-      <c r="N111" s="5">
+      <c r="O111" s="5">
         <f t="shared" si="3"/>
         <v>115.024</v>
       </c>
-      <c r="O111" s="1">
+      <c r="P111" s="1">
         <v>7.18</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -6669,27 +7011,30 @@
         <v>8</v>
       </c>
       <c r="I112" t="s">
+        <v>120</v>
+      </c>
+      <c r="J112" t="s">
         <v>18</v>
       </c>
-      <c r="K112" s="6">
+      <c r="L112" s="6">
         <v>2.9629629629629627E-5</v>
       </c>
-      <c r="L112" s="2">
+      <c r="M112" s="2">
         <f t="shared" si="2"/>
         <v>2.5599999999999996</v>
       </c>
-      <c r="M112">
+      <c r="N112">
         <v>44320</v>
       </c>
-      <c r="N112" s="5">
+      <c r="O112" s="5">
         <f t="shared" si="3"/>
         <v>44.32</v>
       </c>
-      <c r="O112" s="1">
+      <c r="P112" s="1">
         <v>6.82</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -6715,27 +7060,30 @@
         <v>8</v>
       </c>
       <c r="I113" t="s">
+        <v>120</v>
+      </c>
+      <c r="J113" t="s">
         <v>18</v>
       </c>
-      <c r="K113" s="6">
+      <c r="L113" s="6">
         <v>2.7662037037037042E-5</v>
       </c>
-      <c r="L113" s="2">
+      <c r="M113" s="2">
         <f t="shared" si="2"/>
         <v>2.3900000000000006</v>
       </c>
-      <c r="M113">
+      <c r="N113">
         <v>44368</v>
       </c>
-      <c r="N113" s="5">
+      <c r="O113" s="5">
         <f t="shared" si="3"/>
         <v>44.368000000000002</v>
       </c>
-      <c r="O113" s="1">
+      <c r="P113" s="1">
         <v>7.17</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -6761,27 +7109,30 @@
         <v>8</v>
       </c>
       <c r="I114" t="s">
+        <v>120</v>
+      </c>
+      <c r="J114" t="s">
         <v>18</v>
       </c>
-      <c r="K114" s="6">
+      <c r="L114" s="6">
         <v>2.7314814814814812E-5</v>
       </c>
-      <c r="L114" s="2">
+      <c r="M114" s="2">
         <f t="shared" si="2"/>
         <v>2.36</v>
       </c>
-      <c r="M114">
+      <c r="N114">
         <v>44864</v>
       </c>
-      <c r="N114" s="5">
+      <c r="O114" s="5">
         <f t="shared" si="3"/>
         <v>44.863999999999997</v>
       </c>
-      <c r="O114" s="1">
+      <c r="P114" s="1">
         <v>7.41</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -6807,27 +7158,30 @@
         <v>8</v>
       </c>
       <c r="I115" t="s">
+        <v>120</v>
+      </c>
+      <c r="J115" t="s">
         <v>18</v>
       </c>
-      <c r="K115" s="6">
+      <c r="L115" s="6">
         <v>2.6967592592592595E-5</v>
       </c>
-      <c r="L115" s="2">
+      <c r="M115" s="2">
         <f t="shared" si="2"/>
         <v>2.33</v>
       </c>
-      <c r="M115">
+      <c r="N115">
         <v>43712</v>
       </c>
-      <c r="N115" s="5">
+      <c r="O115" s="5">
         <f t="shared" si="3"/>
         <v>43.712000000000003</v>
       </c>
-      <c r="O115" s="1">
+      <c r="P115" s="1">
         <v>7.57</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -6853,27 +7207,30 @@
         <v>8</v>
       </c>
       <c r="I116" t="s">
+        <v>120</v>
+      </c>
+      <c r="J116" t="s">
         <v>18</v>
       </c>
-      <c r="K116" s="6">
+      <c r="L116" s="6">
         <v>2.6967592592592595E-5</v>
       </c>
-      <c r="L116" s="2">
+      <c r="M116" s="2">
         <f t="shared" si="2"/>
         <v>2.33</v>
       </c>
-      <c r="M116">
+      <c r="N116">
         <v>44800</v>
       </c>
-      <c r="N116" s="5">
+      <c r="O116" s="5">
         <f t="shared" si="3"/>
         <v>44.8</v>
       </c>
-      <c r="O116" s="1">
+      <c r="P116" s="1">
         <v>7.58</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -6899,27 +7256,30 @@
         <v>8</v>
       </c>
       <c r="I117" t="s">
+        <v>120</v>
+      </c>
+      <c r="J117" t="s">
         <v>18</v>
       </c>
-      <c r="K117" s="6">
+      <c r="L117" s="6">
         <v>2.6967592592592595E-5</v>
       </c>
-      <c r="L117" s="2">
+      <c r="M117" s="2">
         <f t="shared" si="2"/>
         <v>2.33</v>
       </c>
-      <c r="M117">
+      <c r="N117">
         <v>44736</v>
       </c>
-      <c r="N117" s="5">
+      <c r="O117" s="5">
         <f t="shared" si="3"/>
         <v>44.735999999999997</v>
       </c>
-      <c r="O117" s="1">
+      <c r="P117" s="1">
         <v>7.56</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -6945,27 +7305,30 @@
         <v>8</v>
       </c>
       <c r="I118" t="s">
+        <v>120</v>
+      </c>
+      <c r="J118" t="s">
         <v>18</v>
       </c>
-      <c r="K118" s="6">
+      <c r="L118" s="6">
         <v>2.7083333333333332E-5</v>
       </c>
-      <c r="L118" s="2">
+      <c r="M118" s="2">
         <f t="shared" si="2"/>
         <v>2.34</v>
       </c>
-      <c r="M118">
+      <c r="N118">
         <v>44064</v>
       </c>
-      <c r="N118" s="5">
+      <c r="O118" s="5">
         <f t="shared" si="3"/>
         <v>44.064</v>
       </c>
-      <c r="O118" s="1">
+      <c r="P118" s="1">
         <v>7.52</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -6991,27 +7354,30 @@
         <v>8</v>
       </c>
       <c r="I119" t="s">
+        <v>120</v>
+      </c>
+      <c r="J119" t="s">
         <v>18</v>
       </c>
-      <c r="K119" s="6">
+      <c r="L119" s="6">
         <v>2.7662037037037042E-5</v>
       </c>
-      <c r="L119" s="2">
+      <c r="M119" s="2">
         <f t="shared" si="2"/>
         <v>2.3900000000000006</v>
       </c>
-      <c r="M119">
+      <c r="N119">
         <v>44112</v>
       </c>
-      <c r="N119" s="5">
+      <c r="O119" s="5">
         <f t="shared" si="3"/>
         <v>44.112000000000002</v>
       </c>
-      <c r="O119" s="1">
+      <c r="P119" s="1">
         <v>7.37</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -7037,27 +7403,30 @@
         <v>8</v>
       </c>
       <c r="I120" t="s">
+        <v>120</v>
+      </c>
+      <c r="J120" t="s">
         <v>18</v>
       </c>
-      <c r="K120" s="6">
+      <c r="L120" s="6">
         <v>2.7199074074074076E-5</v>
       </c>
-      <c r="L120" s="2">
+      <c r="M120" s="2">
         <f t="shared" si="2"/>
         <v>2.35</v>
       </c>
-      <c r="M120">
+      <c r="N120">
         <v>44080</v>
       </c>
-      <c r="N120" s="5">
+      <c r="O120" s="5">
         <f t="shared" si="3"/>
         <v>44.08</v>
       </c>
-      <c r="O120" s="1">
+      <c r="P120" s="1">
         <v>7.42</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -7083,27 +7452,30 @@
         <v>8</v>
       </c>
       <c r="I121" t="s">
+        <v>120</v>
+      </c>
+      <c r="J121" t="s">
         <v>18</v>
       </c>
-      <c r="K121" s="6">
+      <c r="L121" s="6">
         <v>2.7199074074074076E-5</v>
       </c>
-      <c r="L121" s="2">
+      <c r="M121" s="2">
         <f t="shared" si="2"/>
         <v>2.35</v>
       </c>
-      <c r="M121">
+      <c r="N121">
         <v>43456</v>
       </c>
-      <c r="N121" s="5">
+      <c r="O121" s="5">
         <f t="shared" si="3"/>
         <v>43.456000000000003</v>
       </c>
-      <c r="O121" s="1">
+      <c r="P121" s="1">
         <v>7.44</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1</v>
       </c>
@@ -7129,27 +7501,30 @@
         <v>8</v>
       </c>
       <c r="I122" t="s">
+        <v>120</v>
+      </c>
+      <c r="J122" t="s">
         <v>18</v>
       </c>
-      <c r="K122" s="6">
+      <c r="L122" s="6">
         <v>3.9814814814814818E-4</v>
       </c>
-      <c r="L122" s="2">
+      <c r="M122" s="2">
         <f t="shared" si="2"/>
         <v>34.400000000000006</v>
       </c>
-      <c r="M122">
+      <c r="N122">
         <v>954544</v>
       </c>
-      <c r="N122" s="5">
+      <c r="O122" s="5">
         <f t="shared" si="3"/>
         <v>954.54399999999998</v>
       </c>
-      <c r="O122" s="1">
+      <c r="P122" s="1">
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1</v>
       </c>
@@ -7175,27 +7550,30 @@
         <v>8</v>
       </c>
       <c r="I123" t="s">
+        <v>120</v>
+      </c>
+      <c r="J123" t="s">
         <v>18</v>
       </c>
-      <c r="K123" s="6">
+      <c r="L123" s="6">
         <v>4.0185185185185186E-4</v>
       </c>
-      <c r="L123" s="2">
+      <c r="M123" s="2">
         <f t="shared" si="2"/>
         <v>34.72</v>
       </c>
-      <c r="M123">
+      <c r="N123">
         <v>973504</v>
       </c>
-      <c r="N123" s="5">
+      <c r="O123" s="5">
         <f t="shared" si="3"/>
         <v>973.50400000000002</v>
       </c>
-      <c r="O123" s="1">
+      <c r="P123" s="1">
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1</v>
       </c>
@@ -7221,27 +7599,30 @@
         <v>8</v>
       </c>
       <c r="I124" t="s">
+        <v>120</v>
+      </c>
+      <c r="J124" t="s">
         <v>18</v>
       </c>
-      <c r="K124" s="6">
+      <c r="L124" s="6">
         <v>3.9930555555555552E-4</v>
       </c>
-      <c r="L124" s="2">
+      <c r="M124" s="2">
         <f t="shared" si="2"/>
         <v>34.5</v>
       </c>
-      <c r="M124">
+      <c r="N124">
         <v>967104</v>
       </c>
-      <c r="N124" s="5">
+      <c r="O124" s="5">
         <f t="shared" si="3"/>
         <v>967.10400000000004</v>
       </c>
-      <c r="O124" s="1">
+      <c r="P124" s="1">
         <v>4.67</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1</v>
       </c>
@@ -7267,27 +7648,30 @@
         <v>8</v>
       </c>
       <c r="I125" t="s">
+        <v>120</v>
+      </c>
+      <c r="J125" t="s">
         <v>18</v>
       </c>
-      <c r="K125" s="6">
+      <c r="L125" s="6">
         <v>4.2812500000000007E-4</v>
       </c>
-      <c r="L125" s="2">
+      <c r="M125" s="2">
         <f t="shared" si="2"/>
         <v>36.990000000000009</v>
       </c>
-      <c r="M125">
+      <c r="N125">
         <v>952016</v>
       </c>
-      <c r="N125" s="5">
+      <c r="O125" s="5">
         <f t="shared" si="3"/>
         <v>952.01599999999996</v>
       </c>
-      <c r="O125" s="1">
+      <c r="P125" s="1">
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1</v>
       </c>
@@ -7313,27 +7697,30 @@
         <v>8</v>
       </c>
       <c r="I126" t="s">
+        <v>120</v>
+      </c>
+      <c r="J126" t="s">
         <v>18</v>
       </c>
-      <c r="K126" s="6">
+      <c r="L126" s="6">
         <v>4.1018518518518514E-4</v>
       </c>
-      <c r="L126" s="2">
+      <c r="M126" s="2">
         <f t="shared" si="2"/>
         <v>35.44</v>
       </c>
-      <c r="M126">
+      <c r="N126">
         <v>952336</v>
       </c>
-      <c r="N126" s="5">
+      <c r="O126" s="5">
         <f t="shared" si="3"/>
         <v>952.33600000000001</v>
       </c>
-      <c r="O126" s="1">
+      <c r="P126" s="1">
         <v>4.57</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1</v>
       </c>
@@ -7359,27 +7746,30 @@
         <v>8</v>
       </c>
       <c r="I127" t="s">
+        <v>120</v>
+      </c>
+      <c r="J127" t="s">
         <v>18</v>
       </c>
-      <c r="K127" s="6">
+      <c r="L127" s="6">
         <v>4.1689814814814817E-4</v>
       </c>
-      <c r="L127" s="2">
+      <c r="M127" s="2">
         <f t="shared" si="2"/>
         <v>36.020000000000003</v>
       </c>
-      <c r="M127">
+      <c r="N127">
         <v>987104</v>
       </c>
-      <c r="N127" s="5">
+      <c r="O127" s="5">
         <f t="shared" si="3"/>
         <v>987.10400000000004</v>
       </c>
-      <c r="O127" s="1">
+      <c r="P127" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1</v>
       </c>
@@ -7405,27 +7795,30 @@
         <v>8</v>
       </c>
       <c r="I128" t="s">
+        <v>120</v>
+      </c>
+      <c r="J128" t="s">
         <v>18</v>
       </c>
-      <c r="K128" s="6">
+      <c r="L128" s="6">
         <v>4.164351851851851E-4</v>
       </c>
-      <c r="L128" s="2">
+      <c r="M128" s="2">
         <f t="shared" si="2"/>
         <v>35.97999999999999</v>
       </c>
-      <c r="M128">
+      <c r="N128">
         <v>959616</v>
       </c>
-      <c r="N128" s="5">
+      <c r="O128" s="5">
         <f t="shared" si="3"/>
         <v>959.61599999999999</v>
       </c>
-      <c r="O128" s="1">
+      <c r="P128" s="1">
         <v>4.49</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1</v>
       </c>
@@ -7451,27 +7844,30 @@
         <v>8</v>
       </c>
       <c r="I129" t="s">
+        <v>120</v>
+      </c>
+      <c r="J129" t="s">
         <v>18</v>
       </c>
-      <c r="K129" s="6">
+      <c r="L129" s="6">
         <v>4.135416666666666E-4</v>
       </c>
-      <c r="L129" s="2">
+      <c r="M129" s="2">
         <f t="shared" si="2"/>
         <v>35.729999999999997</v>
       </c>
-      <c r="M129">
+      <c r="N129">
         <v>967440</v>
       </c>
-      <c r="N129" s="5">
+      <c r="O129" s="5">
         <f t="shared" si="3"/>
         <v>967.44</v>
       </c>
-      <c r="O129" s="1">
+      <c r="P129" s="1">
         <v>4.54</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1</v>
       </c>
@@ -7497,27 +7893,30 @@
         <v>8</v>
       </c>
       <c r="I130" t="s">
+        <v>120</v>
+      </c>
+      <c r="J130" t="s">
         <v>18</v>
       </c>
-      <c r="K130" s="6">
+      <c r="L130" s="6">
         <v>4.1793981481481478E-4</v>
       </c>
-      <c r="L130" s="2">
+      <c r="M130" s="2">
         <f t="shared" si="2"/>
         <v>36.11</v>
       </c>
-      <c r="M130">
+      <c r="N130">
         <v>971152</v>
       </c>
-      <c r="N130" s="5">
+      <c r="O130" s="5">
         <f t="shared" si="3"/>
         <v>971.15200000000004</v>
       </c>
-      <c r="O130" s="1">
+      <c r="P130" s="1">
         <v>4.51</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1</v>
       </c>
@@ -7543,27 +7942,30 @@
         <v>8</v>
       </c>
       <c r="I131" t="s">
+        <v>120</v>
+      </c>
+      <c r="J131" t="s">
         <v>18</v>
       </c>
-      <c r="K131" s="6">
+      <c r="L131" s="6">
         <v>4.3124999999999999E-4</v>
       </c>
-      <c r="L131" s="2">
-        <f t="shared" ref="L131:L151" si="4">K131*86400</f>
+      <c r="M131" s="2">
+        <f t="shared" ref="M131:M151" si="4">L131*86400</f>
         <v>37.26</v>
       </c>
-      <c r="M131">
+      <c r="N131">
         <v>995552</v>
       </c>
-      <c r="N131" s="5">
-        <f t="shared" ref="N131:N151" si="5">M131/1000</f>
+      <c r="O131" s="5">
+        <f t="shared" ref="O131:O151" si="5">N131/1000</f>
         <v>995.55200000000002</v>
       </c>
-      <c r="O131" s="1">
+      <c r="P131" s="1">
         <v>4.34</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -7589,27 +7991,30 @@
         <v>8</v>
       </c>
       <c r="I132" t="s">
+        <v>120</v>
+      </c>
+      <c r="J132" t="s">
         <v>18</v>
       </c>
-      <c r="K132" s="6">
+      <c r="L132" s="6">
         <v>1.5371527777777777E-3</v>
       </c>
-      <c r="L132" s="2">
+      <c r="M132" s="2">
         <f t="shared" si="4"/>
         <v>132.81</v>
       </c>
-      <c r="M132">
+      <c r="N132">
         <v>1444240</v>
       </c>
-      <c r="N132" s="5">
+      <c r="O132" s="5">
         <f t="shared" si="5"/>
         <v>1444.24</v>
       </c>
-      <c r="O132" s="1">
+      <c r="P132" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1</v>
       </c>
@@ -7635,27 +8040,30 @@
         <v>8</v>
       </c>
       <c r="I133" t="s">
+        <v>120</v>
+      </c>
+      <c r="J133" t="s">
         <v>18</v>
       </c>
-      <c r="K133" s="6">
+      <c r="L133" s="6">
         <v>1.6223379629629628E-3</v>
       </c>
-      <c r="L133" s="2">
+      <c r="M133" s="2">
         <f t="shared" si="4"/>
         <v>140.16999999999999</v>
       </c>
-      <c r="M133">
+      <c r="N133">
         <v>1453872</v>
       </c>
-      <c r="N133" s="5">
+      <c r="O133" s="5">
         <f t="shared" si="5"/>
         <v>1453.8720000000001</v>
       </c>
-      <c r="O133" s="1">
+      <c r="P133" s="1">
         <v>1.87</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1</v>
       </c>
@@ -7681,27 +8089,30 @@
         <v>8</v>
       </c>
       <c r="I134" t="s">
+        <v>120</v>
+      </c>
+      <c r="J134" t="s">
         <v>18</v>
       </c>
-      <c r="K134" s="6">
+      <c r="L134" s="6">
         <v>1.7901620370370372E-3</v>
       </c>
-      <c r="L134" s="2">
+      <c r="M134" s="2">
         <f t="shared" si="4"/>
         <v>154.67000000000002</v>
       </c>
-      <c r="M134">
+      <c r="N134">
         <v>1442944</v>
       </c>
-      <c r="N134" s="5">
+      <c r="O134" s="5">
         <f t="shared" si="5"/>
         <v>1442.944</v>
       </c>
-      <c r="O134" s="1">
+      <c r="P134" s="1">
         <v>1.66</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1</v>
       </c>
@@ -7727,27 +8138,30 @@
         <v>8</v>
       </c>
       <c r="I135" t="s">
+        <v>120</v>
+      </c>
+      <c r="J135" t="s">
         <v>18</v>
       </c>
-      <c r="K135" s="6">
+      <c r="L135" s="6">
         <v>1.5694444444444443E-3</v>
       </c>
-      <c r="L135" s="2">
+      <c r="M135" s="2">
         <f t="shared" si="4"/>
         <v>135.6</v>
       </c>
-      <c r="M135">
+      <c r="N135">
         <v>1449328</v>
       </c>
-      <c r="N135" s="5">
+      <c r="O135" s="5">
         <f t="shared" si="5"/>
         <v>1449.328</v>
       </c>
-      <c r="O135" s="1">
+      <c r="P135" s="1">
         <v>1.96</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1</v>
       </c>
@@ -7773,27 +8187,30 @@
         <v>8</v>
       </c>
       <c r="I136" t="s">
+        <v>120</v>
+      </c>
+      <c r="J136" t="s">
         <v>18</v>
       </c>
-      <c r="K136" s="6">
+      <c r="L136" s="6">
         <v>1.5752314814814815E-3</v>
       </c>
-      <c r="L136" s="2">
+      <c r="M136" s="2">
         <f t="shared" si="4"/>
         <v>136.1</v>
       </c>
-      <c r="M136">
+      <c r="N136">
         <v>1454704</v>
       </c>
-      <c r="N136" s="5">
+      <c r="O136" s="5">
         <f t="shared" si="5"/>
         <v>1454.704</v>
       </c>
-      <c r="O136" s="1">
+      <c r="P136" s="1">
         <v>1.94</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1</v>
       </c>
@@ -7819,27 +8236,30 @@
         <v>8</v>
       </c>
       <c r="I137" t="s">
+        <v>120</v>
+      </c>
+      <c r="J137" t="s">
         <v>18</v>
       </c>
-      <c r="K137" s="6">
+      <c r="L137" s="6">
         <v>1.874074074074074E-3</v>
       </c>
-      <c r="L137" s="2">
+      <c r="M137" s="2">
         <f t="shared" si="4"/>
         <v>161.91999999999999</v>
       </c>
-      <c r="M137">
+      <c r="N137">
         <v>1454784</v>
       </c>
-      <c r="N137" s="5">
+      <c r="O137" s="5">
         <f t="shared" si="5"/>
         <v>1454.7840000000001</v>
       </c>
-      <c r="O137" s="1">
+      <c r="P137" s="1">
         <v>1.57</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -7865,27 +8285,30 @@
         <v>8</v>
       </c>
       <c r="I138" t="s">
+        <v>120</v>
+      </c>
+      <c r="J138" t="s">
         <v>18</v>
       </c>
-      <c r="K138" s="6">
+      <c r="L138" s="6">
         <v>1.5326388888888887E-3</v>
       </c>
-      <c r="L138" s="2">
+      <c r="M138" s="2">
         <f t="shared" si="4"/>
         <v>132.41999999999999</v>
       </c>
-      <c r="M138">
+      <c r="N138">
         <v>1443808</v>
       </c>
-      <c r="N138" s="5">
+      <c r="O138" s="5">
         <f t="shared" si="5"/>
         <v>1443.808</v>
       </c>
-      <c r="O138" s="1">
+      <c r="P138" s="1">
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -7911,27 +8334,30 @@
         <v>8</v>
       </c>
       <c r="I139" t="s">
+        <v>120</v>
+      </c>
+      <c r="J139" t="s">
         <v>18</v>
       </c>
-      <c r="K139" s="6">
+      <c r="L139" s="6">
         <v>1.5170138888888889E-3</v>
       </c>
-      <c r="L139" s="2">
+      <c r="M139" s="2">
         <f t="shared" si="4"/>
         <v>131.07</v>
       </c>
-      <c r="M139">
+      <c r="N139">
         <v>1450608</v>
       </c>
-      <c r="N139" s="5">
+      <c r="O139" s="5">
         <f t="shared" si="5"/>
         <v>1450.6079999999999</v>
       </c>
-      <c r="O139" s="1">
+      <c r="P139" s="1">
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1</v>
       </c>
@@ -7957,27 +8383,30 @@
         <v>8</v>
       </c>
       <c r="I140" t="s">
+        <v>120</v>
+      </c>
+      <c r="J140" t="s">
         <v>18</v>
       </c>
-      <c r="K140" s="6">
+      <c r="L140" s="6">
         <v>1.8840277777777779E-3</v>
       </c>
-      <c r="L140" s="2">
+      <c r="M140" s="2">
         <f t="shared" si="4"/>
         <v>162.78</v>
       </c>
-      <c r="M140">
+      <c r="N140">
         <v>1459552</v>
       </c>
-      <c r="N140" s="5">
+      <c r="O140" s="5">
         <f t="shared" si="5"/>
         <v>1459.5519999999999</v>
       </c>
-      <c r="O140" s="1">
+      <c r="P140" s="1">
         <v>1.57</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1</v>
       </c>
@@ -8003,27 +8432,30 @@
         <v>8</v>
       </c>
       <c r="I141" t="s">
+        <v>120</v>
+      </c>
+      <c r="J141" t="s">
         <v>18</v>
       </c>
-      <c r="K141" s="6">
+      <c r="L141" s="6">
         <v>1.6113425925925924E-3</v>
       </c>
-      <c r="L141" s="2">
+      <c r="M141" s="2">
         <f t="shared" si="4"/>
         <v>139.21999999999997</v>
       </c>
-      <c r="M141">
+      <c r="N141">
         <v>1439552</v>
       </c>
-      <c r="N141" s="5">
+      <c r="O141" s="5">
         <f t="shared" si="5"/>
         <v>1439.5519999999999</v>
       </c>
-      <c r="O141" s="1">
+      <c r="P141" s="1">
         <v>1.89</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1</v>
       </c>
@@ -8049,27 +8481,30 @@
         <v>8</v>
       </c>
       <c r="I142" t="s">
+        <v>120</v>
+      </c>
+      <c r="J142" t="s">
         <v>18</v>
       </c>
-      <c r="K142" s="6">
+      <c r="L142" s="6">
         <v>8.9953703703703691E-4</v>
       </c>
-      <c r="L142" s="2">
+      <c r="M142" s="2">
         <f t="shared" si="4"/>
         <v>77.719999999999985</v>
       </c>
-      <c r="M142">
+      <c r="N142">
         <v>1083360</v>
       </c>
-      <c r="N142" s="5">
+      <c r="O142" s="5">
         <f t="shared" si="5"/>
         <v>1083.3599999999999</v>
       </c>
-      <c r="O142" s="1">
+      <c r="P142" s="1">
         <v>2.85</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1</v>
       </c>
@@ -8095,27 +8530,30 @@
         <v>8</v>
       </c>
       <c r="I143" t="s">
+        <v>120</v>
+      </c>
+      <c r="J143" t="s">
         <v>18</v>
       </c>
-      <c r="K143" s="6">
+      <c r="L143" s="6">
         <v>8.6226851851851861E-4</v>
       </c>
-      <c r="L143" s="2">
+      <c r="M143" s="2">
         <f t="shared" si="4"/>
         <v>74.500000000000014</v>
       </c>
-      <c r="M143">
+      <c r="N143">
         <v>1104016</v>
       </c>
-      <c r="N143" s="5">
+      <c r="O143" s="5">
         <f t="shared" si="5"/>
         <v>1104.0160000000001</v>
       </c>
-      <c r="O143" s="1">
+      <c r="P143" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1</v>
       </c>
@@ -8141,27 +8579,30 @@
         <v>8</v>
       </c>
       <c r="I144" t="s">
+        <v>120</v>
+      </c>
+      <c r="J144" t="s">
         <v>18</v>
       </c>
-      <c r="K144" s="6">
+      <c r="L144" s="6">
         <v>1.0318287037037036E-3</v>
       </c>
-      <c r="L144" s="2">
+      <c r="M144" s="2">
         <f t="shared" si="4"/>
         <v>89.149999999999991</v>
       </c>
-      <c r="M144">
+      <c r="N144">
         <v>1102368</v>
       </c>
-      <c r="N144" s="5">
+      <c r="O144" s="5">
         <f t="shared" si="5"/>
         <v>1102.3679999999999</v>
       </c>
-      <c r="O144" s="1">
+      <c r="P144" s="1">
         <v>2.39</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1</v>
       </c>
@@ -8187,27 +8628,30 @@
         <v>8</v>
       </c>
       <c r="I145" t="s">
+        <v>120</v>
+      </c>
+      <c r="J145" t="s">
         <v>18</v>
       </c>
-      <c r="K145" s="6">
+      <c r="L145" s="6">
         <v>9.9884259259259262E-4</v>
       </c>
-      <c r="L145" s="2">
+      <c r="M145" s="2">
         <f t="shared" si="4"/>
         <v>86.3</v>
       </c>
-      <c r="M145">
+      <c r="N145">
         <v>1107904</v>
       </c>
-      <c r="N145" s="5">
+      <c r="O145" s="5">
         <f t="shared" si="5"/>
         <v>1107.904</v>
       </c>
-      <c r="O145" s="1">
+      <c r="P145" s="1">
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1</v>
       </c>
@@ -8233,27 +8677,30 @@
         <v>8</v>
       </c>
       <c r="I146" t="s">
+        <v>120</v>
+      </c>
+      <c r="J146" t="s">
         <v>18</v>
       </c>
-      <c r="K146" s="6">
+      <c r="L146" s="6">
         <v>9.8854166666666665E-4</v>
       </c>
-      <c r="L146" s="2">
+      <c r="M146" s="2">
         <f t="shared" si="4"/>
         <v>85.41</v>
       </c>
-      <c r="M146">
+      <c r="N146">
         <v>1093584</v>
       </c>
-      <c r="N146" s="5">
+      <c r="O146" s="5">
         <f t="shared" si="5"/>
         <v>1093.5840000000001</v>
       </c>
-      <c r="O146" s="1">
+      <c r="P146" s="1">
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1</v>
       </c>
@@ -8279,27 +8726,30 @@
         <v>8</v>
       </c>
       <c r="I147" t="s">
+        <v>120</v>
+      </c>
+      <c r="J147" t="s">
         <v>18</v>
       </c>
-      <c r="K147" s="6">
+      <c r="L147" s="6">
         <v>9.0532407407407402E-4</v>
       </c>
-      <c r="L147" s="2">
+      <c r="M147" s="2">
         <f t="shared" si="4"/>
         <v>78.22</v>
       </c>
-      <c r="M147">
+      <c r="N147">
         <v>1100560</v>
       </c>
-      <c r="N147" s="5">
+      <c r="O147" s="5">
         <f t="shared" si="5"/>
         <v>1100.56</v>
       </c>
-      <c r="O147" s="1">
+      <c r="P147" s="1">
         <v>2.83</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1</v>
       </c>
@@ -8325,27 +8775,30 @@
         <v>8</v>
       </c>
       <c r="I148" t="s">
+        <v>120</v>
+      </c>
+      <c r="J148" t="s">
         <v>18</v>
       </c>
-      <c r="K148" s="6">
+      <c r="L148" s="6">
         <v>8.8784722222222216E-4</v>
       </c>
-      <c r="L148" s="2">
+      <c r="M148" s="2">
         <f t="shared" si="4"/>
         <v>76.709999999999994</v>
       </c>
-      <c r="M148">
+      <c r="N148">
         <v>1091168</v>
       </c>
-      <c r="N148" s="5">
+      <c r="O148" s="5">
         <f t="shared" si="5"/>
         <v>1091.1679999999999</v>
       </c>
-      <c r="O148" s="1">
+      <c r="P148" s="1">
         <v>2.93</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1</v>
       </c>
@@ -8371,27 +8824,30 @@
         <v>8</v>
       </c>
       <c r="I149" t="s">
+        <v>120</v>
+      </c>
+      <c r="J149" t="s">
         <v>18</v>
       </c>
-      <c r="K149" s="6">
+      <c r="L149" s="6">
         <v>9.3437499999999988E-4</v>
       </c>
-      <c r="L149" s="2">
+      <c r="M149" s="2">
         <f t="shared" si="4"/>
         <v>80.72999999999999</v>
       </c>
-      <c r="M149">
+      <c r="N149">
         <v>1106848</v>
       </c>
-      <c r="N149" s="5">
+      <c r="O149" s="5">
         <f t="shared" si="5"/>
         <v>1106.848</v>
       </c>
-      <c r="O149" s="1">
+      <c r="P149" s="1">
         <v>2.74</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -8417,27 +8873,30 @@
         <v>8</v>
       </c>
       <c r="I150" t="s">
+        <v>120</v>
+      </c>
+      <c r="J150" t="s">
         <v>18</v>
       </c>
-      <c r="K150" s="6">
+      <c r="L150" s="6">
         <v>9.9386574074074069E-4</v>
       </c>
-      <c r="L150" s="2">
+      <c r="M150" s="2">
         <f t="shared" si="4"/>
         <v>85.86999999999999</v>
       </c>
-      <c r="M150">
+      <c r="N150">
         <v>1115120</v>
       </c>
-      <c r="N150" s="5">
+      <c r="O150" s="5">
         <f t="shared" si="5"/>
         <v>1115.1199999999999</v>
       </c>
-      <c r="O150" s="1">
+      <c r="P150" s="1">
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1</v>
       </c>
@@ -8463,23 +8922,26 @@
         <v>8</v>
       </c>
       <c r="I151" t="s">
+        <v>120</v>
+      </c>
+      <c r="J151" t="s">
         <v>18</v>
       </c>
-      <c r="K151" s="6">
+      <c r="L151" s="6">
         <v>1.0425925925925926E-3</v>
       </c>
-      <c r="L151" s="2">
+      <c r="M151" s="2">
         <f t="shared" si="4"/>
         <v>90.08</v>
       </c>
-      <c r="M151">
+      <c r="N151">
         <v>1093760</v>
       </c>
-      <c r="N151" s="5">
+      <c r="O151" s="5">
         <f t="shared" si="5"/>
         <v>1093.76</v>
       </c>
-      <c r="O151" s="1">
+      <c r="P151" s="1">
         <v>2.38</v>
       </c>
     </row>
